--- a/all.xlsx
+++ b/all.xlsx
@@ -13,7 +13,6 @@
     <definedName name="Microsoft_Excel_Worksheet_جديد" localSheetId="0">Sheet3!$A$1:$H$623</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4102" uniqueCount="1381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4115" uniqueCount="1392">
   <si>
     <t>Data Types</t>
   </si>
@@ -4193,6 +4192,41 @@
   </si>
   <si>
     <t>https://archive.ics.uci.edu/ml/machine-learning-databases/internet_ads/ad-dataset.zip</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/isolet/isolet5.data.Z
+https://archive.ics.uci.edu/ml/machine-learning-databases/isolet/isolet1+2+3+4.data.Z</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/kinship/kinship.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/labor-negotiations/C4.5/labor-neg.data
+https://archive.ics.uci.edu/ml/machine-learning-databases/labor-negotiations/C4.5/labor-neg.test</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/lenses/lenses.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/letter-recognition/letter-recognition.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/liver-disorders/bupa.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/lung-cancer/lung-cancer.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/lymphography/lymphography.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/mechanical-analysis/PUMPS-DATA-SET/DISTRIBUTION.Z</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/meta-data/meta.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/mobile-robots/mobile-robots.tar.gz</t>
   </si>
 </sst>
 </file>
@@ -4684,8 +4718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4900,7 +4934,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
@@ -4926,7 +4960,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -4978,7 +5012,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -5002,7 +5036,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>51</v>
       </c>
@@ -5028,7 +5062,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
@@ -5052,7 +5086,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>56</v>
       </c>
@@ -5130,7 +5164,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>69</v>
       </c>
@@ -5156,7 +5190,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="216.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="102" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>72</v>
       </c>
@@ -5182,7 +5216,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>76</v>
       </c>
@@ -5258,7 +5292,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>84</v>
       </c>
@@ -5284,7 +5318,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="102" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>88</v>
       </c>
@@ -5570,7 +5604,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>122</v>
       </c>
@@ -6018,7 +6052,9 @@
       <c r="G54" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H54" s="13"/>
+      <c r="H54" s="13" t="s">
+        <v>1381</v>
+      </c>
     </row>
     <row r="55" spans="1:8" ht="102" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
@@ -6042,7 +6078,9 @@
       <c r="G55" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H55" s="14"/>
+      <c r="H55" s="14" t="s">
+        <v>1382</v>
+      </c>
     </row>
     <row r="56" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
@@ -6064,7 +6102,9 @@
       <c r="G56" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H56" s="13"/>
+      <c r="H56" s="13" t="s">
+        <v>1383</v>
+      </c>
     </row>
     <row r="57" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
@@ -6086,7 +6126,9 @@
       <c r="G57" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H57" s="14"/>
+      <c r="H57" s="14" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="58" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
@@ -6110,7 +6152,9 @@
       <c r="G58" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H58" s="13"/>
+      <c r="H58" s="13" t="s">
+        <v>1384</v>
+      </c>
     </row>
     <row r="59" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
@@ -6134,7 +6178,9 @@
       <c r="G59" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="H59" s="14"/>
+      <c r="H59" s="14" t="s">
+        <v>1385</v>
+      </c>
     </row>
     <row r="60" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -6156,7 +6202,9 @@
       <c r="G60" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H60" s="13"/>
+      <c r="H60" s="13" t="s">
+        <v>1386</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
@@ -6170,7 +6218,9 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="14"/>
+      <c r="H61" s="14" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="62" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -6194,7 +6244,9 @@
       <c r="G62" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H62" s="13"/>
+      <c r="H62" s="13" t="s">
+        <v>1387</v>
+      </c>
     </row>
     <row r="63" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
@@ -6218,7 +6270,9 @@
       <c r="G63" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H63" s="14"/>
+      <c r="H63" s="14" t="s">
+        <v>1388</v>
+      </c>
     </row>
     <row r="64" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
@@ -6242,7 +6296,9 @@
       <c r="G64" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H64" s="13"/>
+      <c r="H64" s="13" t="s">
+        <v>1389</v>
+      </c>
     </row>
     <row r="65" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
@@ -6266,7 +6322,9 @@
       <c r="G65" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H65" s="14"/>
+      <c r="H65" s="14" t="s">
+        <v>1390</v>
+      </c>
     </row>
     <row r="66" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
@@ -6284,7 +6342,9 @@
       <c r="G66" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H66" s="13"/>
+      <c r="H66" s="13" t="s">
+        <v>1391</v>
+      </c>
     </row>
     <row r="67" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">

--- a/all.xlsx
+++ b/all.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4115" uniqueCount="1392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4134" uniqueCount="1406">
   <si>
     <t>Data Types</t>
   </si>
@@ -4227,6 +4227,55 @@
   </si>
   <si>
     <t>https://archive.ics.uci.edu/ml/machine-learning-databases/mobile-robots/mobile-robots.tar.gz</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/molecular-biology/promoter-gene-sequences/promoters.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/molecular-biology/splice-junction-gene-sequences/splice.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/monks-problems/monks-1.test
+https://archive.ics.uci.edu/ml/machine-learning-databases/monks-problems/monks-2.test
+https://archive.ics.uci.edu/ml/machine-learning-databases/monks-problems/monks-3.test
+https://archive.ics.uci.edu/ml/machine-learning-databases/monks-problems/monks-1.train
+https://archive.ics.uci.edu/ml/machine-learning-databases/monks-problems/monks-2.train
+https://archive.ics.uci.edu/ml/machine-learning-databases/monks-problems/monks-3.train</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/moral-reasoner/moral.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/mushroom/agaricus-lepiota.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/musk/clean1.data.Z</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/musk/clean2.data.Z</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/nursery/nursery.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/page-blocks/page-blocks.data.Z</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/optdigits/optdigits.tra
+https://archive.ics.uci.edu/ml/machine-learning-databases/optdigits/optdigits.tes</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/pendigits/pendigits.tra
+https://archive.ics.uci.edu/ml/machine-learning-databases/pendigits/pendigits.tes</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/postoperative-patient-data/post-operative.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/qsar/drug_data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/primary-tumor/primary-tumor.data</t>
   </si>
 </sst>
 </file>
@@ -4718,8 +4767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6368,7 +6417,9 @@
       <c r="G67" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H67" s="14"/>
+      <c r="H67" s="14" t="s">
+        <v>1392</v>
+      </c>
     </row>
     <row r="68" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
@@ -6388,7 +6439,9 @@
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="13"/>
+      <c r="H68" s="13" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="69" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
@@ -6412,7 +6465,9 @@
       <c r="G69" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H69" s="14"/>
+      <c r="H69" s="14" t="s">
+        <v>1393</v>
+      </c>
     </row>
     <row r="70" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
@@ -6436,7 +6491,9 @@
       <c r="G70" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H70" s="13"/>
+      <c r="H70" s="13" t="s">
+        <v>1394</v>
+      </c>
     </row>
     <row r="71" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
@@ -6454,7 +6511,9 @@
       <c r="G71" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H71" s="14"/>
+      <c r="H71" s="14" t="s">
+        <v>1395</v>
+      </c>
     </row>
     <row r="72" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -6476,7 +6535,9 @@
         <v>209</v>
       </c>
       <c r="G72" s="2"/>
-      <c r="H72" s="13"/>
+      <c r="H72" s="13" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="73" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
@@ -6500,7 +6561,9 @@
       <c r="G73" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H73" s="14"/>
+      <c r="H73" s="14" t="s">
+        <v>1396</v>
+      </c>
     </row>
     <row r="74" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -6524,7 +6587,9 @@
       <c r="G74" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H74" s="13"/>
+      <c r="H74" s="13" t="s">
+        <v>1397</v>
+      </c>
     </row>
     <row r="75" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
@@ -6548,7 +6613,9 @@
       <c r="G75" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H75" s="14"/>
+      <c r="H75" s="14" t="s">
+        <v>1398</v>
+      </c>
     </row>
     <row r="76" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
@@ -6572,7 +6639,9 @@
       <c r="G76" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H76" s="13"/>
+      <c r="H76" s="13" t="s">
+        <v>1399</v>
+      </c>
     </row>
     <row r="77" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
@@ -6588,7 +6657,9 @@
       <c r="G77" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="H77" s="14"/>
+      <c r="H77" s="14" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="78" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
@@ -6612,7 +6683,9 @@
       <c r="G78" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H78" s="13"/>
+      <c r="H78" s="13" t="s">
+        <v>1400</v>
+      </c>
     </row>
     <row r="79" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
@@ -6636,7 +6709,9 @@
       <c r="G79" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H79" s="14"/>
+      <c r="H79" s="14" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="80" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
@@ -6660,7 +6735,9 @@
       <c r="G80" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H80" s="13"/>
+      <c r="H80" s="13" t="s">
+        <v>1402</v>
+      </c>
     </row>
     <row r="81" spans="1:8" ht="102" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
@@ -6684,7 +6761,9 @@
       <c r="G81" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H81" s="14"/>
+      <c r="H81" s="14" t="s">
+        <v>1403</v>
+      </c>
     </row>
     <row r="82" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -6708,7 +6787,9 @@
       <c r="G82" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H82" s="13"/>
+      <c r="H82" s="13" t="s">
+        <v>1405</v>
+      </c>
     </row>
     <row r="83" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
@@ -6722,7 +6803,9 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
-      <c r="H83" s="14"/>
+      <c r="H83" s="14" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="84" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
@@ -6736,7 +6819,9 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
-      <c r="H84" s="13"/>
+      <c r="H84" s="13" t="s">
+        <v>1404</v>
+      </c>
     </row>
     <row r="85" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
@@ -6758,7 +6843,9 @@
       <c r="G85" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H85" s="14"/>
+      <c r="H85" s="14" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="86" spans="1:8" ht="102" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">

--- a/all.xlsx
+++ b/all.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4134" uniqueCount="1406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4148" uniqueCount="1418">
   <si>
     <t>Data Types</t>
   </si>
@@ -4276,6 +4276,48 @@
   </si>
   <si>
     <t>https://archive.ics.uci.edu/ml/machine-learning-databases/primary-tumor/primary-tumor.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/servo/servo.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/shuttle-landing-control/shuttle-landing-control.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/solar-flare/flare.data1
+https://archive.ics.uci.edu/ml/machine-learning-databases/solar-flare/flare.data2</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/soybean/soybean-large.data
+https://archive.ics.uci.edu/ml/machine-learning-databases/soybean/soybean-large.test</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/soybean/soybean-small.data
+https://archive.ics.uci.edu/ml/machine-learning-databases/soybean/soybean-large.test</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/space-shuttle/o-ring-erosion-only.data
+https://archive.ics.uci.edu/ml/machine-learning-databases/space-shuttle/o-ring-erosion-or-blowby.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/spectrometer/lrs.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/spambase/spambase.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/spect/SPECT.test
+https://archive.ics.uci.edu/ml/machine-learning-databases/spect/SPECT.train</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/spect/SPECTF.test
+https://archive.ics.uci.edu/ml/machine-learning-databases/spect/SPECTF.train</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/sponge/sponge.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/tae/tae.data</t>
   </si>
 </sst>
 </file>
@@ -4767,23 +4809,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H86" sqref="H86"/>
+    <sheetView tabSelected="1" topLeftCell="H95" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="3.42578125" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
-    <col min="5" max="5" width="3.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="62.7109375" style="16" customWidth="1"/>
+    <col min="8" max="8" width="90.5703125" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -4807,7 +4849,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -4833,7 +4875,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -4859,7 +4901,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -4883,7 +4925,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="153" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -4907,7 +4949,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -4933,7 +4975,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
@@ -4959,7 +5001,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -4983,7 +5025,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
@@ -5009,7 +5051,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -5035,7 +5077,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>44</v>
       </c>
@@ -5061,7 +5103,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -5085,7 +5127,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>51</v>
       </c>
@@ -5111,7 +5153,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
@@ -5135,7 +5177,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>56</v>
       </c>
@@ -5161,7 +5203,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
@@ -5187,7 +5229,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>64</v>
       </c>
@@ -5213,7 +5255,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>69</v>
       </c>
@@ -5239,7 +5281,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>72</v>
       </c>
@@ -5265,7 +5307,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>76</v>
       </c>
@@ -5291,7 +5333,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>80</v>
       </c>
@@ -5317,7 +5359,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>81</v>
       </c>
@@ -5341,7 +5383,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>84</v>
       </c>
@@ -5367,7 +5409,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>88</v>
       </c>
@@ -5393,7 +5435,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>90</v>
       </c>
@@ -5409,7 +5451,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>92</v>
       </c>
@@ -5431,7 +5473,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>95</v>
       </c>
@@ -5457,7 +5499,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>99</v>
       </c>
@@ -5481,7 +5523,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>102</v>
       </c>
@@ -5503,7 +5545,7 @@
       </c>
       <c r="H29" s="14"/>
     </row>
-    <row r="30" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>106</v>
       </c>
@@ -5529,7 +5571,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>108</v>
       </c>
@@ -5555,7 +5597,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>110</v>
       </c>
@@ -5581,7 +5623,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>113</v>
       </c>
@@ -5607,7 +5649,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>116</v>
       </c>
@@ -5633,7 +5675,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>119</v>
       </c>
@@ -5653,7 +5695,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>122</v>
       </c>
@@ -5671,7 +5713,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>124</v>
       </c>
@@ -5701,7 +5743,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>126</v>
       </c>
@@ -5727,7 +5769,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>129</v>
       </c>
@@ -5753,7 +5795,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>131</v>
       </c>
@@ -5779,7 +5821,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>134</v>
       </c>
@@ -5801,7 +5843,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>137</v>
       </c>
@@ -5827,7 +5869,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>139</v>
       </c>
@@ -5853,7 +5895,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>143</v>
       </c>
@@ -5879,7 +5921,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>146</v>
       </c>
@@ -5905,7 +5947,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>149</v>
       </c>
@@ -5931,7 +5973,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>152</v>
       </c>
@@ -5957,7 +5999,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>155</v>
       </c>
@@ -5975,7 +6017,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>156</v>
       </c>
@@ -6001,7 +6043,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>158</v>
       </c>
@@ -6027,7 +6069,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>161</v>
       </c>
@@ -6053,7 +6095,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>164</v>
       </c>
@@ -6079,7 +6121,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>166</v>
       </c>
@@ -6105,7 +6147,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>169</v>
       </c>
@@ -6131,7 +6173,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>173</v>
       </c>
@@ -6155,7 +6197,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>175</v>
       </c>
@@ -6179,7 +6221,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>176</v>
       </c>
@@ -6205,7 +6247,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>178</v>
       </c>
@@ -6231,7 +6273,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>181</v>
       </c>
@@ -6255,7 +6297,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>183</v>
       </c>
@@ -6271,7 +6313,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>184</v>
       </c>
@@ -6297,7 +6339,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>186</v>
       </c>
@@ -6323,7 +6365,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>189</v>
       </c>
@@ -6349,7 +6391,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>190</v>
       </c>
@@ -6375,7 +6417,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>192</v>
       </c>
@@ -6395,7 +6437,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>193</v>
       </c>
@@ -6421,7 +6463,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>197</v>
       </c>
@@ -6443,7 +6485,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>200</v>
       </c>
@@ -6469,7 +6511,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>203</v>
       </c>
@@ -6495,7 +6537,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>205</v>
       </c>
@@ -6515,7 +6557,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>207</v>
       </c>
@@ -6539,7 +6581,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>210</v>
       </c>
@@ -6565,7 +6607,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>212</v>
       </c>
@@ -6591,7 +6633,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>215</v>
       </c>
@@ -6617,7 +6659,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>217</v>
       </c>
@@ -6643,7 +6685,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>219</v>
       </c>
@@ -6661,7 +6703,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>220</v>
       </c>
@@ -6687,7 +6729,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>222</v>
       </c>
@@ -6713,7 +6755,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>225</v>
       </c>
@@ -6739,7 +6781,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>227</v>
       </c>
@@ -6765,7 +6807,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>229</v>
       </c>
@@ -6791,7 +6833,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>232</v>
       </c>
@@ -6807,7 +6849,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>233</v>
       </c>
@@ -6823,7 +6865,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>234</v>
       </c>
@@ -6847,7 +6889,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>236</v>
       </c>
@@ -6869,9 +6911,11 @@
       <c r="G86" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H86" s="13"/>
-    </row>
-    <row r="87" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="H86" s="13" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>238</v>
       </c>
@@ -6893,9 +6937,11 @@
       <c r="G87" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H87" s="14"/>
-    </row>
-    <row r="88" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="H87" s="14" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>239</v>
       </c>
@@ -6917,9 +6963,11 @@
       <c r="G88" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H88" s="13"/>
-    </row>
-    <row r="89" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="H88" s="13" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>241</v>
       </c>
@@ -6941,9 +6989,11 @@
       <c r="G89" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H89" s="14"/>
-    </row>
-    <row r="90" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="H89" s="14" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>244</v>
       </c>
@@ -6965,9 +7015,11 @@
       <c r="G90" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H90" s="13"/>
-    </row>
-    <row r="91" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="H90" s="13" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>246</v>
       </c>
@@ -6989,9 +7041,11 @@
       <c r="G91" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H91" s="14"/>
-    </row>
-    <row r="92" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="H91" s="14" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>248</v>
       </c>
@@ -7013,9 +7067,11 @@
       <c r="G92" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H92" s="13"/>
-    </row>
-    <row r="93" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="H92" s="14" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>251</v>
       </c>
@@ -7037,9 +7093,11 @@
       <c r="G93" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H93" s="14"/>
-    </row>
-    <row r="94" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="H93" s="13" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>253</v>
       </c>
@@ -7061,9 +7119,11 @@
       <c r="G94" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="H94" s="13"/>
-    </row>
-    <row r="95" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="H94" s="14" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>256</v>
       </c>
@@ -7085,9 +7145,11 @@
       <c r="G95" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="H95" s="14"/>
-    </row>
-    <row r="96" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+      <c r="H95" s="14" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>258</v>
       </c>
@@ -7107,7 +7169,9 @@
         <v>261</v>
       </c>
       <c r="G96" s="2"/>
-      <c r="H96" s="13"/>
+      <c r="H96" s="14" t="s">
+        <v>1416</v>
+      </c>
     </row>
     <row r="97" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
@@ -7121,9 +7185,11 @@
       <c r="G97" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H97" s="14"/>
-    </row>
-    <row r="98" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="H97" s="13" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>263</v>
       </c>
@@ -7139,9 +7205,11 @@
       <c r="G98" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H98" s="13"/>
-    </row>
-    <row r="99" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+      <c r="H98" s="14" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>265</v>
       </c>
@@ -7163,9 +7231,11 @@
       <c r="G99" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H99" s="14"/>
-    </row>
-    <row r="100" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="H99" s="14" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>267</v>
       </c>
@@ -7189,7 +7259,7 @@
       </c>
       <c r="H100" s="13"/>
     </row>
-    <row r="101" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>269</v>
       </c>
@@ -7213,7 +7283,7 @@
       </c>
       <c r="H101" s="14"/>
     </row>
-    <row r="102" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>272</v>
       </c>
@@ -7237,7 +7307,7 @@
       </c>
       <c r="H102" s="13"/>
     </row>
-    <row r="103" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>273</v>
       </c>
@@ -7261,7 +7331,7 @@
       </c>
       <c r="H103" s="14"/>
     </row>
-    <row r="104" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>275</v>
       </c>
@@ -7285,7 +7355,7 @@
       </c>
       <c r="H104" s="13"/>
     </row>
-    <row r="105" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>277</v>
       </c>
@@ -7309,7 +7379,7 @@
       </c>
       <c r="H105" s="14"/>
     </row>
-    <row r="106" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>279</v>
       </c>
@@ -7333,7 +7403,7 @@
       </c>
       <c r="H106" s="13"/>
     </row>
-    <row r="107" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>281</v>
       </c>
@@ -7357,7 +7427,7 @@
       </c>
       <c r="H107" s="14"/>
     </row>
-    <row r="108" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>283</v>
       </c>
@@ -7381,7 +7451,7 @@
       </c>
       <c r="H108" s="13"/>
     </row>
-    <row r="109" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>285</v>
       </c>
@@ -7405,7 +7475,7 @@
       </c>
       <c r="H109" s="14"/>
     </row>
-    <row r="110" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>287</v>
       </c>
@@ -7441,7 +7511,7 @@
       <c r="G111" s="4"/>
       <c r="H111" s="14"/>
     </row>
-    <row r="112" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>290</v>
       </c>
@@ -7459,7 +7529,7 @@
       </c>
       <c r="H112" s="13"/>
     </row>
-    <row r="113" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>292</v>
       </c>
@@ -7483,7 +7553,7 @@
       </c>
       <c r="H113" s="14"/>
     </row>
-    <row r="114" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>294</v>
       </c>
@@ -7507,7 +7577,7 @@
       </c>
       <c r="H114" s="13"/>
     </row>
-    <row r="115" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>297</v>
       </c>
@@ -7529,7 +7599,7 @@
       <c r="G115" s="4"/>
       <c r="H115" s="14"/>
     </row>
-    <row r="116" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>300</v>
       </c>
@@ -7553,7 +7623,7 @@
       </c>
       <c r="H116" s="13"/>
     </row>
-    <row r="117" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>302</v>
       </c>
@@ -7575,7 +7645,7 @@
       </c>
       <c r="H117" s="14"/>
     </row>
-    <row r="118" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>304</v>
       </c>
@@ -7597,7 +7667,7 @@
       </c>
       <c r="H118" s="13"/>
     </row>
-    <row r="119" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>307</v>
       </c>
@@ -7613,7 +7683,7 @@
       </c>
       <c r="H119" s="14"/>
     </row>
-    <row r="120" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>308</v>
       </c>
@@ -7635,7 +7705,7 @@
       </c>
       <c r="H120" s="13"/>
     </row>
-    <row r="121" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>310</v>
       </c>
@@ -7657,7 +7727,7 @@
       </c>
       <c r="H121" s="14"/>
     </row>
-    <row r="122" spans="1:8" ht="153" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>313</v>
       </c>
@@ -7679,7 +7749,7 @@
       </c>
       <c r="H122" s="13"/>
     </row>
-    <row r="123" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>316</v>
       </c>
@@ -7701,7 +7771,7 @@
       </c>
       <c r="H123" s="14"/>
     </row>
-    <row r="124" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>319</v>
       </c>
@@ -7725,7 +7795,7 @@
       </c>
       <c r="H124" s="13"/>
     </row>
-    <row r="125" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>323</v>
       </c>
@@ -7747,7 +7817,7 @@
       </c>
       <c r="H125" s="14"/>
     </row>
-    <row r="126" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>325</v>
       </c>
@@ -7769,7 +7839,7 @@
       </c>
       <c r="H126" s="13"/>
     </row>
-    <row r="127" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>327</v>
       </c>
@@ -7791,7 +7861,7 @@
       <c r="G127" s="4"/>
       <c r="H127" s="14"/>
     </row>
-    <row r="128" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>328</v>
       </c>
@@ -7815,7 +7885,7 @@
       </c>
       <c r="H128" s="13"/>
     </row>
-    <row r="129" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>331</v>
       </c>
@@ -7839,7 +7909,7 @@
       </c>
       <c r="H129" s="14"/>
     </row>
-    <row r="130" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>333</v>
       </c>
@@ -7855,7 +7925,7 @@
       </c>
       <c r="H130" s="13"/>
     </row>
-    <row r="131" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>334</v>
       </c>
@@ -7873,7 +7943,7 @@
       </c>
       <c r="H131" s="14"/>
     </row>
-    <row r="132" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>337</v>
       </c>
@@ -7891,7 +7961,7 @@
       <c r="G132" s="2"/>
       <c r="H132" s="13"/>
     </row>
-    <row r="133" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>339</v>
       </c>
@@ -7909,7 +7979,7 @@
       </c>
       <c r="H133" s="14"/>
     </row>
-    <row r="134" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>342</v>
       </c>
@@ -7927,7 +7997,7 @@
       </c>
       <c r="H134" s="13"/>
     </row>
-    <row r="135" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>343</v>
       </c>
@@ -7945,7 +8015,7 @@
       </c>
       <c r="H135" s="14"/>
     </row>
-    <row r="136" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>345</v>
       </c>
@@ -7969,7 +8039,7 @@
       </c>
       <c r="H136" s="13"/>
     </row>
-    <row r="137" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>347</v>
       </c>
@@ -7993,7 +8063,7 @@
       </c>
       <c r="H137" s="14"/>
     </row>
-    <row r="138" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>349</v>
       </c>
@@ -8015,7 +8085,7 @@
       </c>
       <c r="H138" s="13"/>
     </row>
-    <row r="139" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>353</v>
       </c>
@@ -8039,7 +8109,7 @@
       </c>
       <c r="H139" s="14"/>
     </row>
-    <row r="140" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>356</v>
       </c>
@@ -8053,7 +8123,7 @@
       <c r="G140" s="2"/>
       <c r="H140" s="13"/>
     </row>
-    <row r="141" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>358</v>
       </c>
@@ -8069,7 +8139,7 @@
       <c r="G141" s="4"/>
       <c r="H141" s="14"/>
     </row>
-    <row r="142" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>359</v>
       </c>
@@ -8091,7 +8161,7 @@
       <c r="G142" s="2"/>
       <c r="H142" s="13"/>
     </row>
-    <row r="143" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>360</v>
       </c>
@@ -8115,7 +8185,7 @@
       </c>
       <c r="H143" s="14"/>
     </row>
-    <row r="144" spans="1:8" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>361</v>
       </c>
@@ -8137,7 +8207,7 @@
       <c r="G144" s="2"/>
       <c r="H144" s="13"/>
     </row>
-    <row r="145" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>363</v>
       </c>
@@ -8161,7 +8231,7 @@
       </c>
       <c r="H145" s="14"/>
     </row>
-    <row r="146" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>365</v>
       </c>
@@ -8185,7 +8255,7 @@
       </c>
       <c r="H146" s="13"/>
     </row>
-    <row r="147" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>366</v>
       </c>
@@ -8207,7 +8277,7 @@
       <c r="G147" s="4"/>
       <c r="H147" s="14"/>
     </row>
-    <row r="148" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>368</v>
       </c>
@@ -8229,7 +8299,7 @@
       <c r="G148" s="2"/>
       <c r="H148" s="13"/>
     </row>
-    <row r="149" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>370</v>
       </c>
@@ -8249,7 +8319,7 @@
       <c r="G149" s="4"/>
       <c r="H149" s="14"/>
     </row>
-    <row r="150" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>372</v>
       </c>
@@ -8271,7 +8341,7 @@
       <c r="G150" s="2"/>
       <c r="H150" s="13"/>
     </row>
-    <row r="151" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>375</v>
       </c>
@@ -8291,7 +8361,7 @@
       <c r="G151" s="4"/>
       <c r="H151" s="14"/>
     </row>
-    <row r="152" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>376</v>
       </c>
@@ -8317,7 +8387,7 @@
       <c r="G153" s="4"/>
       <c r="H153" s="14"/>
     </row>
-    <row r="154" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>378</v>
       </c>
@@ -8339,7 +8409,7 @@
       </c>
       <c r="H154" s="13"/>
     </row>
-    <row r="155" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>380</v>
       </c>
@@ -8361,7 +8431,7 @@
       </c>
       <c r="H155" s="14"/>
     </row>
-    <row r="156" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>383</v>
       </c>
@@ -8383,7 +8453,7 @@
       </c>
       <c r="H156" s="13"/>
     </row>
-    <row r="157" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>385</v>
       </c>
@@ -8407,7 +8477,7 @@
       </c>
       <c r="H157" s="14"/>
     </row>
-    <row r="158" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>389</v>
       </c>
@@ -8431,7 +8501,7 @@
       </c>
       <c r="H158" s="13"/>
     </row>
-    <row r="159" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>391</v>
       </c>
@@ -8453,7 +8523,7 @@
       </c>
       <c r="H159" s="14"/>
     </row>
-    <row r="160" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>394</v>
       </c>
@@ -8477,7 +8547,7 @@
       </c>
       <c r="H160" s="13"/>
     </row>
-    <row r="161" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>396</v>
       </c>
@@ -8501,7 +8571,7 @@
       </c>
       <c r="H161" s="14"/>
     </row>
-    <row r="162" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>399</v>
       </c>
@@ -8521,7 +8591,7 @@
       </c>
       <c r="H162" s="13"/>
     </row>
-    <row r="163" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>401</v>
       </c>
@@ -8545,7 +8615,7 @@
       </c>
       <c r="H163" s="14"/>
     </row>
-    <row r="164" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>403</v>
       </c>
@@ -8569,7 +8639,7 @@
       </c>
       <c r="H164" s="13"/>
     </row>
-    <row r="165" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>405</v>
       </c>
@@ -8593,7 +8663,7 @@
       </c>
       <c r="H165" s="14"/>
     </row>
-    <row r="166" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>407</v>
       </c>
@@ -8617,7 +8687,7 @@
       </c>
       <c r="H166" s="13"/>
     </row>
-    <row r="167" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>409</v>
       </c>
@@ -8641,7 +8711,7 @@
       </c>
       <c r="H167" s="14"/>
     </row>
-    <row r="168" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>411</v>
       </c>
@@ -8665,7 +8735,7 @@
       </c>
       <c r="H168" s="13"/>
     </row>
-    <row r="169" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>413</v>
       </c>
@@ -8689,7 +8759,7 @@
       </c>
       <c r="H169" s="14"/>
     </row>
-    <row r="170" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>415</v>
       </c>
@@ -8713,7 +8783,7 @@
       </c>
       <c r="H170" s="13"/>
     </row>
-    <row r="171" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>418</v>
       </c>
@@ -8737,7 +8807,7 @@
       </c>
       <c r="H171" s="14"/>
     </row>
-    <row r="172" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>422</v>
       </c>
@@ -8761,7 +8831,7 @@
       </c>
       <c r="H172" s="13"/>
     </row>
-    <row r="173" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>426</v>
       </c>
@@ -8785,7 +8855,7 @@
       </c>
       <c r="H173" s="14"/>
     </row>
-    <row r="174" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>428</v>
       </c>
@@ -8809,7 +8879,7 @@
       </c>
       <c r="H174" s="13"/>
     </row>
-    <row r="175" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>430</v>
       </c>
@@ -8833,7 +8903,7 @@
       </c>
       <c r="H175" s="14"/>
     </row>
-    <row r="176" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>432</v>
       </c>
@@ -8855,7 +8925,7 @@
       </c>
       <c r="H176" s="13"/>
     </row>
-    <row r="177" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>435</v>
       </c>
@@ -8879,7 +8949,7 @@
       </c>
       <c r="H177" s="14"/>
     </row>
-    <row r="178" spans="1:8" ht="178.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>438</v>
       </c>
@@ -8903,7 +8973,7 @@
       </c>
       <c r="H178" s="13"/>
     </row>
-    <row r="179" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>442</v>
       </c>
@@ -8927,7 +8997,7 @@
       </c>
       <c r="H179" s="14"/>
     </row>
-    <row r="180" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>445</v>
       </c>
@@ -8951,7 +9021,7 @@
       </c>
       <c r="H180" s="13"/>
     </row>
-    <row r="181" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>448</v>
       </c>
@@ -8975,7 +9045,7 @@
       </c>
       <c r="H181" s="14"/>
     </row>
-    <row r="182" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>450</v>
       </c>
@@ -8999,7 +9069,7 @@
       </c>
       <c r="H182" s="13"/>
     </row>
-    <row r="183" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>451</v>
       </c>
@@ -9023,7 +9093,7 @@
       </c>
       <c r="H183" s="14"/>
     </row>
-    <row r="184" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>453</v>
       </c>
@@ -9047,7 +9117,7 @@
       </c>
       <c r="H184" s="13"/>
     </row>
-    <row r="185" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>455</v>
       </c>
@@ -9071,7 +9141,7 @@
       </c>
       <c r="H185" s="14"/>
     </row>
-    <row r="186" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>458</v>
       </c>
@@ -9095,7 +9165,7 @@
       </c>
       <c r="H186" s="13"/>
     </row>
-    <row r="187" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>462</v>
       </c>
@@ -9119,7 +9189,7 @@
       </c>
       <c r="H187" s="14"/>
     </row>
-    <row r="188" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>464</v>
       </c>
@@ -9141,7 +9211,7 @@
       </c>
       <c r="H188" s="13"/>
     </row>
-    <row r="189" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>1335</v>
       </c>
@@ -9159,7 +9229,7 @@
       </c>
       <c r="H189" s="14"/>
     </row>
-    <row r="190" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>467</v>
       </c>
@@ -9183,7 +9253,7 @@
       </c>
       <c r="H190" s="13"/>
     </row>
-    <row r="191" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>468</v>
       </c>
@@ -9207,7 +9277,7 @@
       </c>
       <c r="H191" s="14"/>
     </row>
-    <row r="192" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>470</v>
       </c>
@@ -9231,7 +9301,7 @@
       </c>
       <c r="H192" s="13"/>
     </row>
-    <row r="193" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>472</v>
       </c>
@@ -9255,7 +9325,7 @@
       </c>
       <c r="H193" s="14"/>
     </row>
-    <row r="194" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>474</v>
       </c>
@@ -9279,7 +9349,7 @@
       </c>
       <c r="H194" s="13"/>
     </row>
-    <row r="195" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>477</v>
       </c>
@@ -9299,7 +9369,7 @@
       </c>
       <c r="H195" s="14"/>
     </row>
-    <row r="196" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>478</v>
       </c>
@@ -9323,7 +9393,7 @@
       </c>
       <c r="H196" s="13"/>
     </row>
-    <row r="197" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>480</v>
       </c>
@@ -9347,7 +9417,7 @@
       </c>
       <c r="H197" s="14"/>
     </row>
-    <row r="198" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>483</v>
       </c>
@@ -9371,7 +9441,7 @@
       </c>
       <c r="H198" s="13"/>
     </row>
-    <row r="199" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>486</v>
       </c>
@@ -9395,7 +9465,7 @@
       </c>
       <c r="H199" s="14"/>
     </row>
-    <row r="200" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>489</v>
       </c>
@@ -9411,7 +9481,7 @@
       </c>
       <c r="H200" s="13"/>
     </row>
-    <row r="201" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>490</v>
       </c>
@@ -9435,7 +9505,7 @@
       </c>
       <c r="H201" s="14"/>
     </row>
-    <row r="202" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>493</v>
       </c>
@@ -9457,7 +9527,7 @@
       </c>
       <c r="H202" s="13"/>
     </row>
-    <row r="203" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>495</v>
       </c>
@@ -9477,7 +9547,7 @@
       </c>
       <c r="H203" s="14"/>
     </row>
-    <row r="204" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>496</v>
       </c>
@@ -9501,7 +9571,7 @@
       </c>
       <c r="H204" s="13"/>
     </row>
-    <row r="205" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>498</v>
       </c>
@@ -9525,7 +9595,7 @@
       </c>
       <c r="H205" s="14"/>
     </row>
-    <row r="206" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>501</v>
       </c>
@@ -9549,7 +9619,7 @@
       </c>
       <c r="H206" s="13"/>
     </row>
-    <row r="207" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>503</v>
       </c>
@@ -9573,7 +9643,7 @@
       </c>
       <c r="H207" s="14"/>
     </row>
-    <row r="208" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>504</v>
       </c>
@@ -9597,7 +9667,7 @@
       </c>
       <c r="H208" s="13"/>
     </row>
-    <row r="209" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>506</v>
       </c>
@@ -9621,7 +9691,7 @@
       </c>
       <c r="H209" s="14"/>
     </row>
-    <row r="210" spans="1:8" ht="229.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>509</v>
       </c>
@@ -9643,7 +9713,7 @@
       </c>
       <c r="H210" s="13"/>
     </row>
-    <row r="211" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>513</v>
       </c>
@@ -9667,7 +9737,7 @@
       </c>
       <c r="H211" s="14"/>
     </row>
-    <row r="212" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>515</v>
       </c>
@@ -9689,7 +9759,7 @@
       </c>
       <c r="H212" s="13"/>
     </row>
-    <row r="213" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>518</v>
       </c>
@@ -9711,7 +9781,7 @@
       </c>
       <c r="H213" s="14"/>
     </row>
-    <row r="214" spans="1:8" ht="204" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>520</v>
       </c>
@@ -9735,7 +9805,7 @@
       </c>
       <c r="H214" s="13"/>
     </row>
-    <row r="215" spans="1:8" ht="204" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>524</v>
       </c>
@@ -9759,7 +9829,7 @@
       </c>
       <c r="H215" s="14"/>
     </row>
-    <row r="216" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>527</v>
       </c>
@@ -9783,7 +9853,7 @@
       </c>
       <c r="H216" s="13"/>
     </row>
-    <row r="217" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>530</v>
       </c>
@@ -9805,7 +9875,7 @@
       </c>
       <c r="H217" s="14"/>
     </row>
-    <row r="218" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>532</v>
       </c>
@@ -9829,7 +9899,7 @@
       </c>
       <c r="H218" s="13"/>
     </row>
-    <row r="219" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>534</v>
       </c>
@@ -9853,7 +9923,7 @@
       </c>
       <c r="H219" s="14"/>
     </row>
-    <row r="220" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>536</v>
       </c>
@@ -9877,7 +9947,7 @@
       </c>
       <c r="H220" s="13"/>
     </row>
-    <row r="221" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>539</v>
       </c>
@@ -9901,7 +9971,7 @@
       </c>
       <c r="H221" s="14"/>
     </row>
-    <row r="222" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>542</v>
       </c>
@@ -9923,7 +9993,7 @@
       </c>
       <c r="H222" s="13"/>
     </row>
-    <row r="223" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>544</v>
       </c>
@@ -9947,7 +10017,7 @@
       </c>
       <c r="H223" s="14"/>
     </row>
-    <row r="224" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>546</v>
       </c>
@@ -9971,7 +10041,7 @@
       </c>
       <c r="H224" s="13"/>
     </row>
-    <row r="225" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>548</v>
       </c>
@@ -9995,7 +10065,7 @@
       </c>
       <c r="H225" s="14"/>
     </row>
-    <row r="226" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>551</v>
       </c>
@@ -10015,7 +10085,7 @@
       </c>
       <c r="H226" s="13"/>
     </row>
-    <row r="227" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>553</v>
       </c>
@@ -10039,7 +10109,7 @@
       </c>
       <c r="H227" s="14"/>
     </row>
-    <row r="228" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>556</v>
       </c>
@@ -10063,7 +10133,7 @@
       </c>
       <c r="H228" s="13"/>
     </row>
-    <row r="229" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>559</v>
       </c>
@@ -10087,7 +10157,7 @@
       </c>
       <c r="H229" s="14"/>
     </row>
-    <row r="230" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>561</v>
       </c>
@@ -10111,7 +10181,7 @@
       </c>
       <c r="H230" s="13"/>
     </row>
-    <row r="231" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>563</v>
       </c>
@@ -10133,7 +10203,7 @@
       </c>
       <c r="H231" s="14"/>
     </row>
-    <row r="232" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>565</v>
       </c>
@@ -10151,7 +10221,7 @@
       </c>
       <c r="H232" s="13"/>
     </row>
-    <row r="233" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>566</v>
       </c>
@@ -10173,7 +10243,7 @@
       </c>
       <c r="H233" s="14"/>
     </row>
-    <row r="234" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>569</v>
       </c>
@@ -10195,7 +10265,7 @@
       </c>
       <c r="H234" s="13"/>
     </row>
-    <row r="235" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>571</v>
       </c>
@@ -10219,7 +10289,7 @@
       </c>
       <c r="H235" s="14"/>
     </row>
-    <row r="236" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>573</v>
       </c>
@@ -10243,7 +10313,7 @@
       </c>
       <c r="H236" s="13"/>
     </row>
-    <row r="237" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>576</v>
       </c>
@@ -10267,7 +10337,7 @@
       </c>
       <c r="H237" s="14"/>
     </row>
-    <row r="238" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>577</v>
       </c>
@@ -10291,7 +10361,7 @@
       </c>
       <c r="H238" s="13"/>
     </row>
-    <row r="239" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>579</v>
       </c>
@@ -10315,7 +10385,7 @@
       </c>
       <c r="H239" s="14"/>
     </row>
-    <row r="240" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>582</v>
       </c>
@@ -10339,7 +10409,7 @@
       </c>
       <c r="H240" s="13"/>
     </row>
-    <row r="241" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>585</v>
       </c>
@@ -10363,7 +10433,7 @@
       </c>
       <c r="H241" s="14"/>
     </row>
-    <row r="242" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>590</v>
       </c>
@@ -10387,7 +10457,7 @@
       </c>
       <c r="H242" s="13"/>
     </row>
-    <row r="243" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>592</v>
       </c>
@@ -10411,7 +10481,7 @@
       </c>
       <c r="H243" s="14"/>
     </row>
-    <row r="244" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>594</v>
       </c>
@@ -10435,7 +10505,7 @@
       </c>
       <c r="H244" s="13"/>
     </row>
-    <row r="245" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>597</v>
       </c>
@@ -10459,7 +10529,7 @@
       </c>
       <c r="H245" s="14"/>
     </row>
-    <row r="246" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>599</v>
       </c>
@@ -10483,7 +10553,7 @@
       </c>
       <c r="H246" s="13"/>
     </row>
-    <row r="247" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>602</v>
       </c>
@@ -10507,7 +10577,7 @@
       </c>
       <c r="H247" s="14"/>
     </row>
-    <row r="248" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>605</v>
       </c>
@@ -10529,7 +10599,7 @@
       </c>
       <c r="H248" s="13"/>
     </row>
-    <row r="249" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>606</v>
       </c>
@@ -10553,7 +10623,7 @@
       </c>
       <c r="H249" s="14"/>
     </row>
-    <row r="250" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>609</v>
       </c>
@@ -10577,7 +10647,7 @@
       </c>
       <c r="H250" s="13"/>
     </row>
-    <row r="251" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>611</v>
       </c>
@@ -10599,7 +10669,7 @@
       </c>
       <c r="H251" s="14"/>
     </row>
-    <row r="252" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>613</v>
       </c>
@@ -10621,7 +10691,7 @@
       </c>
       <c r="H252" s="13"/>
     </row>
-    <row r="253" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>616</v>
       </c>
@@ -10643,7 +10713,7 @@
       </c>
       <c r="H253" s="14"/>
     </row>
-    <row r="254" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>618</v>
       </c>
@@ -10667,7 +10737,7 @@
       </c>
       <c r="H254" s="13"/>
     </row>
-    <row r="255" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>619</v>
       </c>
@@ -10691,7 +10761,7 @@
       </c>
       <c r="H255" s="14"/>
     </row>
-    <row r="256" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>621</v>
       </c>
@@ -10715,7 +10785,7 @@
       </c>
       <c r="H256" s="13"/>
     </row>
-    <row r="257" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>623</v>
       </c>
@@ -10739,7 +10809,7 @@
       </c>
       <c r="H257" s="14"/>
     </row>
-    <row r="258" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>625</v>
       </c>
@@ -10763,7 +10833,7 @@
       </c>
       <c r="H258" s="13"/>
     </row>
-    <row r="259" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>627</v>
       </c>
@@ -10787,7 +10857,7 @@
       </c>
       <c r="H259" s="14"/>
     </row>
-    <row r="260" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>628</v>
       </c>
@@ -10811,7 +10881,7 @@
       </c>
       <c r="H260" s="13"/>
     </row>
-    <row r="261" spans="1:8" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>631</v>
       </c>
@@ -10835,7 +10905,7 @@
       </c>
       <c r="H261" s="14"/>
     </row>
-    <row r="262" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>634</v>
       </c>
@@ -10855,7 +10925,7 @@
       </c>
       <c r="H262" s="13"/>
     </row>
-    <row r="263" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>636</v>
       </c>
@@ -10879,7 +10949,7 @@
       </c>
       <c r="H263" s="14"/>
     </row>
-    <row r="264" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>638</v>
       </c>
@@ -10903,7 +10973,7 @@
       </c>
       <c r="H264" s="13"/>
     </row>
-    <row r="265" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>641</v>
       </c>
@@ -10927,7 +10997,7 @@
       </c>
       <c r="H265" s="14"/>
     </row>
-    <row r="266" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>645</v>
       </c>
@@ -10951,7 +11021,7 @@
       </c>
       <c r="H266" s="13"/>
     </row>
-    <row r="267" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>647</v>
       </c>
@@ -10973,7 +11043,7 @@
       </c>
       <c r="H267" s="14"/>
     </row>
-    <row r="268" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>648</v>
       </c>
@@ -10997,7 +11067,7 @@
       </c>
       <c r="H268" s="13"/>
     </row>
-    <row r="269" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>650</v>
       </c>
@@ -11019,7 +11089,7 @@
       </c>
       <c r="H269" s="14"/>
     </row>
-    <row r="270" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>651</v>
       </c>
@@ -11041,7 +11111,7 @@
       </c>
       <c r="H270" s="13"/>
     </row>
-    <row r="271" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>653</v>
       </c>
@@ -11063,7 +11133,7 @@
       </c>
       <c r="H271" s="14"/>
     </row>
-    <row r="272" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>656</v>
       </c>
@@ -11085,7 +11155,7 @@
       </c>
       <c r="H272" s="13"/>
     </row>
-    <row r="273" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>658</v>
       </c>
@@ -11109,7 +11179,7 @@
       </c>
       <c r="H273" s="14"/>
     </row>
-    <row r="274" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>661</v>
       </c>
@@ -11129,7 +11199,7 @@
       </c>
       <c r="H274" s="13"/>
     </row>
-    <row r="275" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>662</v>
       </c>
@@ -11151,7 +11221,7 @@
       </c>
       <c r="H275" s="14"/>
     </row>
-    <row r="276" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>664</v>
       </c>
@@ -11171,7 +11241,7 @@
       </c>
       <c r="H276" s="13"/>
     </row>
-    <row r="277" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>665</v>
       </c>
@@ -11191,7 +11261,7 @@
       </c>
       <c r="H277" s="14"/>
     </row>
-    <row r="278" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>666</v>
       </c>
@@ -11215,7 +11285,7 @@
       </c>
       <c r="H278" s="13"/>
     </row>
-    <row r="279" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>667</v>
       </c>
@@ -11237,7 +11307,7 @@
       </c>
       <c r="H279" s="14"/>
     </row>
-    <row r="280" spans="1:8" ht="204" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>669</v>
       </c>
@@ -11261,7 +11331,7 @@
       </c>
       <c r="H280" s="13"/>
     </row>
-    <row r="281" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>671</v>
       </c>
@@ -11285,7 +11355,7 @@
       </c>
       <c r="H281" s="14"/>
     </row>
-    <row r="282" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>673</v>
       </c>
@@ -11309,7 +11379,7 @@
       </c>
       <c r="H282" s="13"/>
     </row>
-    <row r="283" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>674</v>
       </c>
@@ -11331,7 +11401,7 @@
       </c>
       <c r="H283" s="14"/>
     </row>
-    <row r="284" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>676</v>
       </c>
@@ -11355,7 +11425,7 @@
       </c>
       <c r="H284" s="13"/>
     </row>
-    <row r="285" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>678</v>
       </c>
@@ -11377,7 +11447,7 @@
       </c>
       <c r="H285" s="14"/>
     </row>
-    <row r="286" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>679</v>
       </c>
@@ -11401,7 +11471,7 @@
       </c>
       <c r="H286" s="13"/>
     </row>
-    <row r="287" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>681</v>
       </c>
@@ -11423,7 +11493,7 @@
       </c>
       <c r="H287" s="14"/>
     </row>
-    <row r="288" spans="1:8" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>683</v>
       </c>
@@ -11447,7 +11517,7 @@
       </c>
       <c r="H288" s="13"/>
     </row>
-    <row r="289" spans="1:8" ht="204" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>686</v>
       </c>
@@ -11471,7 +11541,7 @@
       </c>
       <c r="H289" s="14"/>
     </row>
-    <row r="290" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>688</v>
       </c>
@@ -11495,7 +11565,7 @@
       </c>
       <c r="H290" s="13"/>
     </row>
-    <row r="291" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>690</v>
       </c>
@@ -11519,7 +11589,7 @@
       </c>
       <c r="H291" s="14"/>
     </row>
-    <row r="292" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>692</v>
       </c>
@@ -11543,7 +11613,7 @@
       </c>
       <c r="H292" s="13"/>
     </row>
-    <row r="293" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>695</v>
       </c>
@@ -11567,7 +11637,7 @@
       </c>
       <c r="H293" s="14"/>
     </row>
-    <row r="294" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>698</v>
       </c>
@@ -11591,7 +11661,7 @@
       </c>
       <c r="H294" s="13"/>
     </row>
-    <row r="295" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>700</v>
       </c>
@@ -11609,7 +11679,7 @@
       </c>
       <c r="H295" s="14"/>
     </row>
-    <row r="296" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>701</v>
       </c>
@@ -11631,7 +11701,7 @@
       </c>
       <c r="H296" s="13"/>
     </row>
-    <row r="297" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>703</v>
       </c>
@@ -11655,7 +11725,7 @@
       </c>
       <c r="H297" s="14"/>
     </row>
-    <row r="298" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>705</v>
       </c>
@@ -11679,7 +11749,7 @@
       </c>
       <c r="H298" s="13"/>
     </row>
-    <row r="299" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>708</v>
       </c>
@@ -11703,7 +11773,7 @@
       </c>
       <c r="H299" s="14"/>
     </row>
-    <row r="300" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>711</v>
       </c>
@@ -11723,7 +11793,7 @@
       </c>
       <c r="H300" s="13"/>
     </row>
-    <row r="301" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>712</v>
       </c>
@@ -11747,7 +11817,7 @@
       </c>
       <c r="H301" s="14"/>
     </row>
-    <row r="302" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>714</v>
       </c>
@@ -11771,7 +11841,7 @@
       </c>
       <c r="H302" s="13"/>
     </row>
-    <row r="303" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>715</v>
       </c>
@@ -11793,7 +11863,7 @@
       </c>
       <c r="H303" s="14"/>
     </row>
-    <row r="304" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>716</v>
       </c>
@@ -11817,7 +11887,7 @@
       </c>
       <c r="H304" s="13"/>
     </row>
-    <row r="305" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>718</v>
       </c>
@@ -11841,7 +11911,7 @@
       </c>
       <c r="H305" s="14"/>
     </row>
-    <row r="306" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>720</v>
       </c>
@@ -11865,7 +11935,7 @@
       </c>
       <c r="H306" s="13"/>
     </row>
-    <row r="307" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>722</v>
       </c>
@@ -11889,7 +11959,7 @@
       </c>
       <c r="H307" s="14"/>
     </row>
-    <row r="308" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>725</v>
       </c>
@@ -11913,7 +11983,7 @@
       </c>
       <c r="H308" s="13"/>
     </row>
-    <row r="309" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>726</v>
       </c>
@@ -11937,7 +12007,7 @@
       </c>
       <c r="H309" s="14"/>
     </row>
-    <row r="310" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>727</v>
       </c>
@@ -11961,7 +12031,7 @@
       </c>
       <c r="H310" s="13"/>
     </row>
-    <row r="311" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>730</v>
       </c>
@@ -11985,7 +12055,7 @@
       </c>
       <c r="H311" s="14"/>
     </row>
-    <row r="312" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>732</v>
       </c>
@@ -12009,7 +12079,7 @@
       </c>
       <c r="H312" s="13"/>
     </row>
-    <row r="313" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>735</v>
       </c>
@@ -12031,7 +12101,7 @@
       </c>
       <c r="H313" s="14"/>
     </row>
-    <row r="314" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>737</v>
       </c>
@@ -12055,7 +12125,7 @@
       </c>
       <c r="H314" s="13"/>
     </row>
-    <row r="315" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>740</v>
       </c>
@@ -12079,7 +12149,7 @@
       </c>
       <c r="H315" s="14"/>
     </row>
-    <row r="316" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>742</v>
       </c>
@@ -12101,7 +12171,7 @@
       </c>
       <c r="H316" s="13"/>
     </row>
-    <row r="317" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>744</v>
       </c>
@@ -12125,7 +12195,7 @@
       </c>
       <c r="H317" s="14"/>
     </row>
-    <row r="318" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>747</v>
       </c>
@@ -12149,7 +12219,7 @@
       </c>
       <c r="H318" s="13"/>
     </row>
-    <row r="319" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>749</v>
       </c>
@@ -12173,7 +12243,7 @@
       </c>
       <c r="H319" s="14"/>
     </row>
-    <row r="320" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>751</v>
       </c>
@@ -12193,7 +12263,7 @@
       </c>
       <c r="H320" s="13"/>
     </row>
-    <row r="321" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>752</v>
       </c>
@@ -12217,7 +12287,7 @@
       </c>
       <c r="H321" s="14"/>
     </row>
-    <row r="322" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>754</v>
       </c>
@@ -12239,7 +12309,7 @@
       </c>
       <c r="H322" s="13"/>
     </row>
-    <row r="323" spans="1:8" ht="229.5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>756</v>
       </c>
@@ -12261,7 +12331,7 @@
       </c>
       <c r="H323" s="14"/>
     </row>
-    <row r="324" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>759</v>
       </c>
@@ -12285,7 +12355,7 @@
       </c>
       <c r="H324" s="13"/>
     </row>
-    <row r="325" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>761</v>
       </c>
@@ -12309,7 +12379,7 @@
       </c>
       <c r="H325" s="14"/>
     </row>
-    <row r="326" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>764</v>
       </c>
@@ -12333,7 +12403,7 @@
       </c>
       <c r="H326" s="13"/>
     </row>
-    <row r="327" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>768</v>
       </c>
@@ -12355,7 +12425,7 @@
       </c>
       <c r="H327" s="14"/>
     </row>
-    <row r="328" spans="1:8" ht="330" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>770</v>
       </c>
@@ -12379,7 +12449,7 @@
       </c>
       <c r="H328" s="13"/>
     </row>
-    <row r="329" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>774</v>
       </c>
@@ -12403,7 +12473,7 @@
       </c>
       <c r="H329" s="14"/>
     </row>
-    <row r="330" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>776</v>
       </c>
@@ -12427,7 +12497,7 @@
       </c>
       <c r="H330" s="13"/>
     </row>
-    <row r="331" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>778</v>
       </c>
@@ -12451,7 +12521,7 @@
       </c>
       <c r="H331" s="14"/>
     </row>
-    <row r="332" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>780</v>
       </c>
@@ -12475,7 +12545,7 @@
       </c>
       <c r="H332" s="13"/>
     </row>
-    <row r="333" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>782</v>
       </c>
@@ -12499,7 +12569,7 @@
       </c>
       <c r="H333" s="14"/>
     </row>
-    <row r="334" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>784</v>
       </c>
@@ -12523,7 +12593,7 @@
       </c>
       <c r="H334" s="13"/>
     </row>
-    <row r="335" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>786</v>
       </c>
@@ -12547,7 +12617,7 @@
       </c>
       <c r="H335" s="14"/>
     </row>
-    <row r="336" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>789</v>
       </c>
@@ -12571,7 +12641,7 @@
       </c>
       <c r="H336" s="13"/>
     </row>
-    <row r="337" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>791</v>
       </c>
@@ -12591,7 +12661,7 @@
       </c>
       <c r="H337" s="14"/>
     </row>
-    <row r="338" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>792</v>
       </c>
@@ -12615,7 +12685,7 @@
       </c>
       <c r="H338" s="13"/>
     </row>
-    <row r="339" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>793</v>
       </c>
@@ -12639,7 +12709,7 @@
       </c>
       <c r="H339" s="14"/>
     </row>
-    <row r="340" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>795</v>
       </c>
@@ -12663,7 +12733,7 @@
       </c>
       <c r="H340" s="13"/>
     </row>
-    <row r="341" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>797</v>
       </c>
@@ -12687,7 +12757,7 @@
       </c>
       <c r="H341" s="14"/>
     </row>
-    <row r="342" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>799</v>
       </c>
@@ -12711,7 +12781,7 @@
       </c>
       <c r="H342" s="13"/>
     </row>
-    <row r="343" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>801</v>
       </c>
@@ -12735,7 +12805,7 @@
       </c>
       <c r="H343" s="14"/>
     </row>
-    <row r="344" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>804</v>
       </c>
@@ -12759,7 +12829,7 @@
       </c>
       <c r="H344" s="13"/>
     </row>
-    <row r="345" spans="1:8" ht="204" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>806</v>
       </c>
@@ -12783,7 +12853,7 @@
       </c>
       <c r="H345" s="14"/>
     </row>
-    <row r="346" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>807</v>
       </c>
@@ -12805,7 +12875,7 @@
       </c>
       <c r="H346" s="13"/>
     </row>
-    <row r="347" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
         <v>809</v>
       </c>
@@ -12829,7 +12899,7 @@
       </c>
       <c r="H347" s="14"/>
     </row>
-    <row r="348" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>811</v>
       </c>
@@ -12853,7 +12923,7 @@
       </c>
       <c r="H348" s="13"/>
     </row>
-    <row r="349" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>814</v>
       </c>
@@ -12877,7 +12947,7 @@
       </c>
       <c r="H349" s="14"/>
     </row>
-    <row r="350" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>816</v>
       </c>
@@ -12901,7 +12971,7 @@
       </c>
       <c r="H350" s="13"/>
     </row>
-    <row r="351" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>818</v>
       </c>
@@ -12925,7 +12995,7 @@
       </c>
       <c r="H351" s="14"/>
     </row>
-    <row r="352" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>820</v>
       </c>
@@ -12949,7 +13019,7 @@
       </c>
       <c r="H352" s="13"/>
     </row>
-    <row r="353" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
         <v>822</v>
       </c>
@@ -12973,7 +13043,7 @@
       </c>
       <c r="H353" s="14"/>
     </row>
-    <row r="354" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>824</v>
       </c>
@@ -12995,7 +13065,7 @@
       </c>
       <c r="H354" s="13"/>
     </row>
-    <row r="355" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
         <v>827</v>
       </c>
@@ -13019,7 +13089,7 @@
       </c>
       <c r="H355" s="14"/>
     </row>
-    <row r="356" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>828</v>
       </c>
@@ -13039,7 +13109,7 @@
       </c>
       <c r="H356" s="13"/>
     </row>
-    <row r="357" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>830</v>
       </c>
@@ -13063,7 +13133,7 @@
       </c>
       <c r="H357" s="14"/>
     </row>
-    <row r="358" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>833</v>
       </c>
@@ -13087,7 +13157,7 @@
       </c>
       <c r="H358" s="13"/>
     </row>
-    <row r="359" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
         <v>836</v>
       </c>
@@ -13111,7 +13181,7 @@
       </c>
       <c r="H359" s="14"/>
     </row>
-    <row r="360" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>838</v>
       </c>
@@ -13135,7 +13205,7 @@
       </c>
       <c r="H360" s="13"/>
     </row>
-    <row r="361" spans="1:8" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
         <v>840</v>
       </c>
@@ -13159,7 +13229,7 @@
       </c>
       <c r="H361" s="14"/>
     </row>
-    <row r="362" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>843</v>
       </c>
@@ -13181,7 +13251,7 @@
       </c>
       <c r="H362" s="13"/>
     </row>
-    <row r="363" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
         <v>845</v>
       </c>
@@ -13205,7 +13275,7 @@
       </c>
       <c r="H363" s="14"/>
     </row>
-    <row r="364" spans="1:8" ht="204" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>847</v>
       </c>
@@ -13229,7 +13299,7 @@
       </c>
       <c r="H364" s="13"/>
     </row>
-    <row r="365" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
         <v>849</v>
       </c>
@@ -13253,7 +13323,7 @@
       </c>
       <c r="H365" s="14"/>
     </row>
-    <row r="366" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>851</v>
       </c>
@@ -13275,7 +13345,7 @@
       </c>
       <c r="H366" s="13"/>
     </row>
-    <row r="367" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
         <v>853</v>
       </c>
@@ -13299,7 +13369,7 @@
       </c>
       <c r="H367" s="14"/>
     </row>
-    <row r="368" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>855</v>
       </c>
@@ -13323,7 +13393,7 @@
       </c>
       <c r="H368" s="13"/>
     </row>
-    <row r="369" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
         <v>858</v>
       </c>
@@ -13347,7 +13417,7 @@
       </c>
       <c r="H369" s="14"/>
     </row>
-    <row r="370" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>860</v>
       </c>
@@ -13371,7 +13441,7 @@
       </c>
       <c r="H370" s="13"/>
     </row>
-    <row r="371" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
         <v>862</v>
       </c>
@@ -13395,7 +13465,7 @@
       </c>
       <c r="H371" s="14"/>
     </row>
-    <row r="372" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>865</v>
       </c>
@@ -13419,7 +13489,7 @@
       </c>
       <c r="H372" s="13"/>
     </row>
-    <row r="373" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
         <v>868</v>
       </c>
@@ -13443,7 +13513,7 @@
       </c>
       <c r="H373" s="14"/>
     </row>
-    <row r="374" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>869</v>
       </c>
@@ -13467,7 +13537,7 @@
       </c>
       <c r="H374" s="13"/>
     </row>
-    <row r="375" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
         <v>872</v>
       </c>
@@ -13487,7 +13557,7 @@
       </c>
       <c r="H375" s="14"/>
     </row>
-    <row r="376" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>874</v>
       </c>
@@ -13511,7 +13581,7 @@
       </c>
       <c r="H376" s="13"/>
     </row>
-    <row r="377" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
         <v>876</v>
       </c>
@@ -13535,7 +13605,7 @@
       </c>
       <c r="H377" s="14"/>
     </row>
-    <row r="378" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>1336</v>
       </c>
@@ -13559,7 +13629,7 @@
       </c>
       <c r="H378" s="13"/>
     </row>
-    <row r="379" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
         <v>880</v>
       </c>
@@ -13583,7 +13653,7 @@
       </c>
       <c r="H379" s="14"/>
     </row>
-    <row r="380" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>882</v>
       </c>
@@ -13607,7 +13677,7 @@
       </c>
       <c r="H380" s="13"/>
     </row>
-    <row r="381" spans="1:8" ht="204" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
         <v>884</v>
       </c>
@@ -13631,7 +13701,7 @@
       </c>
       <c r="H381" s="14"/>
     </row>
-    <row r="382" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>885</v>
       </c>
@@ -13655,7 +13725,7 @@
       </c>
       <c r="H382" s="13"/>
     </row>
-    <row r="383" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
         <v>887</v>
       </c>
@@ -13677,7 +13747,7 @@
       </c>
       <c r="H383" s="14"/>
     </row>
-    <row r="384" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>889</v>
       </c>
@@ -13697,7 +13767,7 @@
       </c>
       <c r="H384" s="13"/>
     </row>
-    <row r="385" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
         <v>891</v>
       </c>
@@ -13721,7 +13791,7 @@
       </c>
       <c r="H385" s="14"/>
     </row>
-    <row r="386" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>894</v>
       </c>
@@ -13743,7 +13813,7 @@
       </c>
       <c r="H386" s="13"/>
     </row>
-    <row r="387" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
         <v>896</v>
       </c>
@@ -13767,7 +13837,7 @@
       </c>
       <c r="H387" s="14"/>
     </row>
-    <row r="388" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>899</v>
       </c>
@@ -13791,7 +13861,7 @@
       </c>
       <c r="H388" s="13"/>
     </row>
-    <row r="389" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
         <v>900</v>
       </c>
@@ -13811,7 +13881,7 @@
       </c>
       <c r="H389" s="14"/>
     </row>
-    <row r="390" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>902</v>
       </c>
@@ -13835,7 +13905,7 @@
       </c>
       <c r="H390" s="13"/>
     </row>
-    <row r="391" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
         <v>904</v>
       </c>
@@ -13859,7 +13929,7 @@
       </c>
       <c r="H391" s="14"/>
     </row>
-    <row r="392" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>905</v>
       </c>
@@ -13883,7 +13953,7 @@
       </c>
       <c r="H392" s="13"/>
     </row>
-    <row r="393" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
         <v>907</v>
       </c>
@@ -13907,7 +13977,7 @@
       </c>
       <c r="H393" s="14"/>
     </row>
-    <row r="394" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>910</v>
       </c>
@@ -13931,7 +14001,7 @@
       </c>
       <c r="H394" s="13"/>
     </row>
-    <row r="395" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
         <v>912</v>
       </c>
@@ -13955,7 +14025,7 @@
       </c>
       <c r="H395" s="14"/>
     </row>
-    <row r="396" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>913</v>
       </c>
@@ -13979,7 +14049,7 @@
       </c>
       <c r="H396" s="13"/>
     </row>
-    <row r="397" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
         <v>915</v>
       </c>
@@ -14001,7 +14071,7 @@
       </c>
       <c r="H397" s="14"/>
     </row>
-    <row r="398" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>917</v>
       </c>
@@ -14023,7 +14093,7 @@
       </c>
       <c r="H398" s="13"/>
     </row>
-    <row r="399" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
         <v>918</v>
       </c>
@@ -14047,7 +14117,7 @@
       </c>
       <c r="H399" s="14"/>
     </row>
-    <row r="400" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>921</v>
       </c>
@@ -14071,7 +14141,7 @@
       </c>
       <c r="H400" s="13"/>
     </row>
-    <row r="401" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
         <v>924</v>
       </c>
@@ -14095,7 +14165,7 @@
       </c>
       <c r="H401" s="14"/>
     </row>
-    <row r="402" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>925</v>
       </c>
@@ -14119,7 +14189,7 @@
       </c>
       <c r="H402" s="13"/>
     </row>
-    <row r="403" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
         <v>926</v>
       </c>
@@ -14143,7 +14213,7 @@
       </c>
       <c r="H403" s="14"/>
     </row>
-    <row r="404" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>929</v>
       </c>
@@ -14167,7 +14237,7 @@
       </c>
       <c r="H404" s="13"/>
     </row>
-    <row r="405" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
         <v>932</v>
       </c>
@@ -14191,7 +14261,7 @@
       </c>
       <c r="H405" s="14"/>
     </row>
-    <row r="406" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>934</v>
       </c>
@@ -14215,7 +14285,7 @@
       </c>
       <c r="H406" s="13"/>
     </row>
-    <row r="407" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
         <v>935</v>
       </c>
@@ -14239,7 +14309,7 @@
       </c>
       <c r="H407" s="14"/>
     </row>
-    <row r="408" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>937</v>
       </c>
@@ -14263,7 +14333,7 @@
       </c>
       <c r="H408" s="13"/>
     </row>
-    <row r="409" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
         <v>938</v>
       </c>
@@ -14287,7 +14357,7 @@
       </c>
       <c r="H409" s="14"/>
     </row>
-    <row r="410" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>940</v>
       </c>
@@ -14311,7 +14381,7 @@
       </c>
       <c r="H410" s="13"/>
     </row>
-    <row r="411" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
         <v>942</v>
       </c>
@@ -14333,7 +14403,7 @@
       </c>
       <c r="H411" s="14"/>
     </row>
-    <row r="412" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>944</v>
       </c>
@@ -14355,7 +14425,7 @@
       </c>
       <c r="H412" s="13"/>
     </row>
-    <row r="413" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
         <v>946</v>
       </c>
@@ -14379,7 +14449,7 @@
       </c>
       <c r="H413" s="14"/>
     </row>
-    <row r="414" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>948</v>
       </c>
@@ -14403,7 +14473,7 @@
       </c>
       <c r="H414" s="13"/>
     </row>
-    <row r="415" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
         <v>950</v>
       </c>
@@ -14427,7 +14497,7 @@
       </c>
       <c r="H415" s="14"/>
     </row>
-    <row r="416" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>951</v>
       </c>
@@ -14451,7 +14521,7 @@
       </c>
       <c r="H416" s="13"/>
     </row>
-    <row r="417" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
         <v>952</v>
       </c>
@@ -14473,7 +14543,7 @@
       </c>
       <c r="H417" s="14"/>
     </row>
-    <row r="418" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>953</v>
       </c>
@@ -14497,7 +14567,7 @@
       </c>
       <c r="H418" s="13"/>
     </row>
-    <row r="419" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
         <v>956</v>
       </c>
@@ -14521,7 +14591,7 @@
       </c>
       <c r="H419" s="14"/>
     </row>
-    <row r="420" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>958</v>
       </c>
@@ -14543,7 +14613,7 @@
       </c>
       <c r="H420" s="13"/>
     </row>
-    <row r="421" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
         <v>960</v>
       </c>
@@ -14567,7 +14637,7 @@
       </c>
       <c r="H421" s="14"/>
     </row>
-    <row r="422" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>962</v>
       </c>
@@ -14591,7 +14661,7 @@
       </c>
       <c r="H422" s="13"/>
     </row>
-    <row r="423" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
         <v>963</v>
       </c>
@@ -14615,7 +14685,7 @@
       </c>
       <c r="H423" s="14"/>
     </row>
-    <row r="424" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>965</v>
       </c>
@@ -14639,7 +14709,7 @@
       </c>
       <c r="H424" s="13"/>
     </row>
-    <row r="425" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
         <v>967</v>
       </c>
@@ -14661,7 +14731,7 @@
       </c>
       <c r="H425" s="14"/>
     </row>
-    <row r="426" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>969</v>
       </c>
@@ -14685,7 +14755,7 @@
       </c>
       <c r="H426" s="13"/>
     </row>
-    <row r="427" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
         <v>971</v>
       </c>
@@ -14709,7 +14779,7 @@
       </c>
       <c r="H427" s="14"/>
     </row>
-    <row r="428" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>974</v>
       </c>
@@ -14733,7 +14803,7 @@
       </c>
       <c r="H428" s="13"/>
     </row>
-    <row r="429" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A429" s="3" t="s">
         <v>976</v>
       </c>
@@ -14757,7 +14827,7 @@
       </c>
       <c r="H429" s="14"/>
     </row>
-    <row r="430" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>978</v>
       </c>
@@ -14779,7 +14849,7 @@
       </c>
       <c r="H430" s="13"/>
     </row>
-    <row r="431" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A431" s="3" t="s">
         <v>980</v>
       </c>
@@ -14803,7 +14873,7 @@
       </c>
       <c r="H431" s="14"/>
     </row>
-    <row r="432" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>983</v>
       </c>
@@ -14827,7 +14897,7 @@
       </c>
       <c r="H432" s="13"/>
     </row>
-    <row r="433" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A433" s="3" t="s">
         <v>985</v>
       </c>
@@ -14851,7 +14921,7 @@
       </c>
       <c r="H433" s="14"/>
     </row>
-    <row r="434" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>986</v>
       </c>
@@ -14875,7 +14945,7 @@
       </c>
       <c r="H434" s="13"/>
     </row>
-    <row r="435" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A435" s="3" t="s">
         <v>987</v>
       </c>
@@ -14899,7 +14969,7 @@
       </c>
       <c r="H435" s="14"/>
     </row>
-    <row r="436" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>988</v>
       </c>
@@ -14923,7 +14993,7 @@
       </c>
       <c r="H436" s="13"/>
     </row>
-    <row r="437" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A437" s="3" t="s">
         <v>990</v>
       </c>
@@ -14945,7 +15015,7 @@
       </c>
       <c r="H437" s="14"/>
     </row>
-    <row r="438" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>992</v>
       </c>
@@ -14967,7 +15037,7 @@
       </c>
       <c r="H438" s="13"/>
     </row>
-    <row r="439" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A439" s="3" t="s">
         <v>994</v>
       </c>
@@ -14991,7 +15061,7 @@
       </c>
       <c r="H439" s="14"/>
     </row>
-    <row r="440" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>996</v>
       </c>
@@ -15013,7 +15083,7 @@
       </c>
       <c r="H440" s="13"/>
     </row>
-    <row r="441" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A441" s="3" t="s">
         <v>998</v>
       </c>
@@ -15037,7 +15107,7 @@
       </c>
       <c r="H441" s="14"/>
     </row>
-    <row r="442" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>1000</v>
       </c>
@@ -15059,7 +15129,7 @@
       </c>
       <c r="H442" s="13"/>
     </row>
-    <row r="443" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A443" s="3" t="s">
         <v>1001</v>
       </c>
@@ -15083,7 +15153,7 @@
       </c>
       <c r="H443" s="14"/>
     </row>
-    <row r="444" spans="1:8" ht="102" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>1003</v>
       </c>
@@ -15103,7 +15173,7 @@
       </c>
       <c r="H444" s="13"/>
     </row>
-    <row r="445" spans="1:8" ht="204" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
         <v>1005</v>
       </c>
@@ -15127,7 +15197,7 @@
       </c>
       <c r="H445" s="14"/>
     </row>
-    <row r="446" spans="1:8" ht="204" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>1006</v>
       </c>
@@ -15151,7 +15221,7 @@
       </c>
       <c r="H446" s="13"/>
     </row>
-    <row r="447" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A447" s="3" t="s">
         <v>1008</v>
       </c>
@@ -15175,7 +15245,7 @@
       </c>
       <c r="H447" s="14"/>
     </row>
-    <row r="448" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>1010</v>
       </c>
@@ -15199,7 +15269,7 @@
       </c>
       <c r="H448" s="13"/>
     </row>
-    <row r="449" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
         <v>1013</v>
       </c>
@@ -15223,7 +15293,7 @@
       </c>
       <c r="H449" s="14"/>
     </row>
-    <row r="450" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>1015</v>
       </c>
@@ -15247,7 +15317,7 @@
       </c>
       <c r="H450" s="13"/>
     </row>
-    <row r="451" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
         <v>1017</v>
       </c>
@@ -15269,7 +15339,7 @@
       </c>
       <c r="H451" s="14"/>
     </row>
-    <row r="452" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>1018</v>
       </c>
@@ -15293,7 +15363,7 @@
       </c>
       <c r="H452" s="13"/>
     </row>
-    <row r="453" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
         <v>1020</v>
       </c>
@@ -15315,7 +15385,7 @@
       </c>
       <c r="H453" s="14"/>
     </row>
-    <row r="454" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>1022</v>
       </c>
@@ -15339,7 +15409,7 @@
       </c>
       <c r="H454" s="13"/>
     </row>
-    <row r="455" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
         <v>1025</v>
       </c>
@@ -15363,7 +15433,7 @@
       </c>
       <c r="H455" s="14"/>
     </row>
-    <row r="456" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>1026</v>
       </c>
@@ -15387,7 +15457,7 @@
       </c>
       <c r="H456" s="13"/>
     </row>
-    <row r="457" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
         <v>1028</v>
       </c>
@@ -15407,7 +15477,7 @@
       </c>
       <c r="H457" s="14"/>
     </row>
-    <row r="458" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>1030</v>
       </c>
@@ -15427,7 +15497,7 @@
       </c>
       <c r="H458" s="13"/>
     </row>
-    <row r="459" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A459" s="3" t="s">
         <v>1032</v>
       </c>
@@ -15451,7 +15521,7 @@
       </c>
       <c r="H459" s="14"/>
     </row>
-    <row r="460" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>1034</v>
       </c>
@@ -15475,7 +15545,7 @@
       </c>
       <c r="H460" s="13"/>
     </row>
-    <row r="461" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A461" s="3" t="s">
         <v>1036</v>
       </c>
@@ -15499,7 +15569,7 @@
       </c>
       <c r="H461" s="14"/>
     </row>
-    <row r="462" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>1038</v>
       </c>
@@ -15519,7 +15589,7 @@
       </c>
       <c r="H462" s="13"/>
     </row>
-    <row r="463" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A463" s="3" t="s">
         <v>1039</v>
       </c>
@@ -15541,7 +15611,7 @@
       </c>
       <c r="H463" s="14"/>
     </row>
-    <row r="464" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>1041</v>
       </c>
@@ -15565,7 +15635,7 @@
       </c>
       <c r="H464" s="13"/>
     </row>
-    <row r="465" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A465" s="3" t="s">
         <v>1043</v>
       </c>
@@ -15589,7 +15659,7 @@
       </c>
       <c r="H465" s="14"/>
     </row>
-    <row r="466" spans="1:8" ht="300" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>1045</v>
       </c>
@@ -15613,7 +15683,7 @@
       </c>
       <c r="H466" s="13"/>
     </row>
-    <row r="467" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
         <v>1048</v>
       </c>
@@ -15637,7 +15707,7 @@
       </c>
       <c r="H467" s="14"/>
     </row>
-    <row r="468" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>1050</v>
       </c>
@@ -15661,7 +15731,7 @@
       </c>
       <c r="H468" s="13"/>
     </row>
-    <row r="469" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
         <v>1052</v>
       </c>
@@ -15685,7 +15755,7 @@
       </c>
       <c r="H469" s="14"/>
     </row>
-    <row r="470" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>1053</v>
       </c>
@@ -15707,7 +15777,7 @@
       </c>
       <c r="H470" s="13"/>
     </row>
-    <row r="471" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
         <v>1054</v>
       </c>
@@ -15731,7 +15801,7 @@
       </c>
       <c r="H471" s="14"/>
     </row>
-    <row r="472" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>1056</v>
       </c>
@@ -15755,7 +15825,7 @@
       </c>
       <c r="H472" s="13"/>
     </row>
-    <row r="473" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A473" s="3" t="s">
         <v>1058</v>
       </c>
@@ -15777,7 +15847,7 @@
       </c>
       <c r="H473" s="14"/>
     </row>
-    <row r="474" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>1061</v>
       </c>
@@ -15801,7 +15871,7 @@
       </c>
       <c r="H474" s="13"/>
     </row>
-    <row r="475" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
         <v>1063</v>
       </c>
@@ -15825,7 +15895,7 @@
       </c>
       <c r="H475" s="14"/>
     </row>
-    <row r="476" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>1065</v>
       </c>
@@ -15849,7 +15919,7 @@
       </c>
       <c r="H476" s="13"/>
     </row>
-    <row r="477" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A477" s="3" t="s">
         <v>1067</v>
       </c>
@@ -15873,7 +15943,7 @@
       </c>
       <c r="H477" s="14"/>
     </row>
-    <row r="478" spans="1:8" ht="204" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>1069</v>
       </c>
@@ -15897,7 +15967,7 @@
       </c>
       <c r="H478" s="13"/>
     </row>
-    <row r="479" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A479" s="3" t="s">
         <v>1070</v>
       </c>
@@ -15921,7 +15991,7 @@
       </c>
       <c r="H479" s="14"/>
     </row>
-    <row r="480" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>1073</v>
       </c>
@@ -15945,7 +16015,7 @@
       </c>
       <c r="H480" s="13"/>
     </row>
-    <row r="481" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A481" s="3" t="s">
         <v>1075</v>
       </c>
@@ -15969,7 +16039,7 @@
       </c>
       <c r="H481" s="14"/>
     </row>
-    <row r="482" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>1077</v>
       </c>
@@ -15993,7 +16063,7 @@
       </c>
       <c r="H482" s="13"/>
     </row>
-    <row r="483" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A483" s="3" t="s">
         <v>1080</v>
       </c>
@@ -16017,7 +16087,7 @@
       </c>
       <c r="H483" s="14"/>
     </row>
-    <row r="484" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>1082</v>
       </c>
@@ -16041,7 +16111,7 @@
       </c>
       <c r="H484" s="13"/>
     </row>
-    <row r="485" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
         <v>1084</v>
       </c>
@@ -16065,7 +16135,7 @@
       </c>
       <c r="H485" s="14"/>
     </row>
-    <row r="486" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>1086</v>
       </c>
@@ -16089,7 +16159,7 @@
       </c>
       <c r="H486" s="13"/>
     </row>
-    <row r="487" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A487" s="3" t="s">
         <v>1088</v>
       </c>
@@ -16113,7 +16183,7 @@
       </c>
       <c r="H487" s="14"/>
     </row>
-    <row r="488" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>1090</v>
       </c>
@@ -16137,7 +16207,7 @@
       </c>
       <c r="H488" s="13"/>
     </row>
-    <row r="489" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A489" s="3" t="s">
         <v>1093</v>
       </c>
@@ -16161,7 +16231,7 @@
       </c>
       <c r="H489" s="14"/>
     </row>
-    <row r="490" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>1095</v>
       </c>
@@ -16183,7 +16253,7 @@
       </c>
       <c r="H490" s="13"/>
     </row>
-    <row r="491" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A491" s="3" t="s">
         <v>1097</v>
       </c>
@@ -16205,7 +16275,7 @@
       </c>
       <c r="H491" s="14"/>
     </row>
-    <row r="492" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>1099</v>
       </c>
@@ -16227,7 +16297,7 @@
       </c>
       <c r="H492" s="13"/>
     </row>
-    <row r="493" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A493" s="3" t="s">
         <v>1101</v>
       </c>
@@ -16251,7 +16321,7 @@
       </c>
       <c r="H493" s="14"/>
     </row>
-    <row r="494" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>1103</v>
       </c>
@@ -16275,7 +16345,7 @@
       </c>
       <c r="H494" s="13"/>
     </row>
-    <row r="495" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A495" s="3" t="s">
         <v>1106</v>
       </c>
@@ -16299,7 +16369,7 @@
       </c>
       <c r="H495" s="14"/>
     </row>
-    <row r="496" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>1108</v>
       </c>
@@ -16323,7 +16393,7 @@
       </c>
       <c r="H496" s="13"/>
     </row>
-    <row r="497" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A497" s="3" t="s">
         <v>1111</v>
       </c>
@@ -16347,7 +16417,7 @@
       </c>
       <c r="H497" s="14"/>
     </row>
-    <row r="498" spans="1:8" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>1113</v>
       </c>
@@ -16371,7 +16441,7 @@
       </c>
       <c r="H498" s="13"/>
     </row>
-    <row r="499" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A499" s="3" t="s">
         <v>1115</v>
       </c>
@@ -16395,7 +16465,7 @@
       </c>
       <c r="H499" s="14"/>
     </row>
-    <row r="500" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>1117</v>
       </c>
@@ -16419,7 +16489,7 @@
       </c>
       <c r="H500" s="13"/>
     </row>
-    <row r="501" spans="1:8" ht="204" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A501" s="3" t="s">
         <v>1119</v>
       </c>
@@ -16443,7 +16513,7 @@
       </c>
       <c r="H501" s="14"/>
     </row>
-    <row r="502" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>1121</v>
       </c>
@@ -16467,7 +16537,7 @@
       </c>
       <c r="H502" s="13"/>
     </row>
-    <row r="503" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A503" s="3" t="s">
         <v>1123</v>
       </c>
@@ -16491,7 +16561,7 @@
       </c>
       <c r="H503" s="14"/>
     </row>
-    <row r="504" spans="1:8" ht="204" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>1125</v>
       </c>
@@ -16515,7 +16585,7 @@
       </c>
       <c r="H504" s="13"/>
     </row>
-    <row r="505" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A505" s="3" t="s">
         <v>1126</v>
       </c>
@@ -16539,7 +16609,7 @@
       </c>
       <c r="H505" s="14"/>
     </row>
-    <row r="506" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>1127</v>
       </c>
@@ -16563,7 +16633,7 @@
       </c>
       <c r="H506" s="13"/>
     </row>
-    <row r="507" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A507" s="3" t="s">
         <v>1130</v>
       </c>
@@ -16587,7 +16657,7 @@
       </c>
       <c r="H507" s="14"/>
     </row>
-    <row r="508" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>1133</v>
       </c>
@@ -16611,7 +16681,7 @@
       </c>
       <c r="H508" s="13"/>
     </row>
-    <row r="509" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A509" s="3" t="s">
         <v>1135</v>
       </c>
@@ -16633,7 +16703,7 @@
       </c>
       <c r="H509" s="14"/>
     </row>
-    <row r="510" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>1138</v>
       </c>
@@ -16657,7 +16727,7 @@
       </c>
       <c r="H510" s="13"/>
     </row>
-    <row r="511" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A511" s="3" t="s">
         <v>1140</v>
       </c>
@@ -16679,7 +16749,7 @@
       </c>
       <c r="H511" s="14"/>
     </row>
-    <row r="512" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>1142</v>
       </c>
@@ -16701,7 +16771,7 @@
       </c>
       <c r="H512" s="13"/>
     </row>
-    <row r="513" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A513" s="3" t="s">
         <v>1144</v>
       </c>
@@ -16725,7 +16795,7 @@
       </c>
       <c r="H513" s="14"/>
     </row>
-    <row r="514" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>1146</v>
       </c>
@@ -16749,7 +16819,7 @@
       </c>
       <c r="H514" s="13"/>
     </row>
-    <row r="515" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A515" s="3" t="s">
         <v>1148</v>
       </c>
@@ -16771,7 +16841,7 @@
       </c>
       <c r="H515" s="14"/>
     </row>
-    <row r="516" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>1065</v>
       </c>
@@ -16795,7 +16865,7 @@
       </c>
       <c r="H516" s="13"/>
     </row>
-    <row r="517" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A517" s="3" t="s">
         <v>1151</v>
       </c>
@@ -16817,7 +16887,7 @@
       </c>
       <c r="H517" s="14"/>
     </row>
-    <row r="518" spans="1:8" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>1153</v>
       </c>
@@ -16841,7 +16911,7 @@
       </c>
       <c r="H518" s="13"/>
     </row>
-    <row r="519" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A519" s="3" t="s">
         <v>1156</v>
       </c>
@@ -16865,7 +16935,7 @@
       </c>
       <c r="H519" s="14"/>
     </row>
-    <row r="520" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>1157</v>
       </c>
@@ -16885,7 +16955,7 @@
       </c>
       <c r="H520" s="13"/>
     </row>
-    <row r="521" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A521" s="3" t="s">
         <v>1070</v>
       </c>
@@ -16909,7 +16979,7 @@
       </c>
       <c r="H521" s="14"/>
     </row>
-    <row r="522" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>1159</v>
       </c>
@@ -16933,7 +17003,7 @@
       </c>
       <c r="H522" s="13"/>
     </row>
-    <row r="523" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A523" s="3" t="s">
         <v>1161</v>
       </c>
@@ -16957,7 +17027,7 @@
       </c>
       <c r="H523" s="14"/>
     </row>
-    <row r="524" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>1164</v>
       </c>
@@ -16979,7 +17049,7 @@
       </c>
       <c r="H524" s="13"/>
     </row>
-    <row r="525" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A525" s="3" t="s">
         <v>1166</v>
       </c>
@@ -16999,7 +17069,7 @@
       </c>
       <c r="H525" s="14"/>
     </row>
-    <row r="526" spans="1:8" ht="204" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>1168</v>
       </c>
@@ -17023,7 +17093,7 @@
       </c>
       <c r="H526" s="13"/>
     </row>
-    <row r="527" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A527" s="3" t="s">
         <v>1170</v>
       </c>
@@ -17047,7 +17117,7 @@
       </c>
       <c r="H527" s="14"/>
     </row>
-    <row r="528" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>1172</v>
       </c>
@@ -17071,7 +17141,7 @@
       </c>
       <c r="H528" s="13"/>
     </row>
-    <row r="529" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A529" s="3" t="s">
         <v>1173</v>
       </c>
@@ -17095,7 +17165,7 @@
       </c>
       <c r="H529" s="14"/>
     </row>
-    <row r="530" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>1175</v>
       </c>
@@ -17119,7 +17189,7 @@
       </c>
       <c r="H530" s="13"/>
     </row>
-    <row r="531" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A531" s="3" t="s">
         <v>1177</v>
       </c>
@@ -17143,7 +17213,7 @@
       </c>
       <c r="H531" s="14"/>
     </row>
-    <row r="532" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>1179</v>
       </c>
@@ -17167,7 +17237,7 @@
       </c>
       <c r="H532" s="13"/>
     </row>
-    <row r="533" spans="1:8" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A533" s="3" t="s">
         <v>1181</v>
       </c>
@@ -17191,7 +17261,7 @@
       </c>
       <c r="H533" s="14"/>
     </row>
-    <row r="534" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>1183</v>
       </c>
@@ -17215,7 +17285,7 @@
       </c>
       <c r="H534" s="13"/>
     </row>
-    <row r="535" spans="1:8" ht="204" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A535" s="3" t="s">
         <v>1186</v>
       </c>
@@ -17239,7 +17309,7 @@
       </c>
       <c r="H535" s="14"/>
     </row>
-    <row r="536" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>1188</v>
       </c>
@@ -17263,7 +17333,7 @@
       </c>
       <c r="H536" s="13"/>
     </row>
-    <row r="537" spans="1:8" ht="204" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A537" s="3" t="s">
         <v>1191</v>
       </c>
@@ -17285,7 +17355,7 @@
       </c>
       <c r="H537" s="14"/>
     </row>
-    <row r="538" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>1192</v>
       </c>
@@ -17307,7 +17377,7 @@
       </c>
       <c r="H538" s="13"/>
     </row>
-    <row r="539" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A539" s="3" t="s">
         <v>1194</v>
       </c>
@@ -17329,7 +17399,7 @@
       </c>
       <c r="H539" s="14"/>
     </row>
-    <row r="540" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>1195</v>
       </c>
@@ -17353,7 +17423,7 @@
       </c>
       <c r="H540" s="13"/>
     </row>
-    <row r="541" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A541" s="3" t="s">
         <v>1111</v>
       </c>
@@ -17377,7 +17447,7 @@
       </c>
       <c r="H541" s="14"/>
     </row>
-    <row r="542" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>1196</v>
       </c>
@@ -17401,7 +17471,7 @@
       </c>
       <c r="H542" s="13"/>
     </row>
-    <row r="543" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A543" s="3" t="s">
         <v>1198</v>
       </c>
@@ -17425,7 +17495,7 @@
       </c>
       <c r="H543" s="14"/>
     </row>
-    <row r="544" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>1201</v>
       </c>
@@ -17447,7 +17517,7 @@
       </c>
       <c r="H544" s="13"/>
     </row>
-    <row r="545" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A545" s="3" t="s">
         <v>1203</v>
       </c>
@@ -17471,7 +17541,7 @@
       </c>
       <c r="H545" s="14"/>
     </row>
-    <row r="546" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
         <v>1205</v>
       </c>
@@ -17495,7 +17565,7 @@
       </c>
       <c r="H546" s="13"/>
     </row>
-    <row r="547" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A547" s="3" t="s">
         <v>1207</v>
       </c>
@@ -17519,7 +17589,7 @@
       </c>
       <c r="H547" s="14"/>
     </row>
-    <row r="548" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>1126</v>
       </c>
@@ -17543,7 +17613,7 @@
       </c>
       <c r="H548" s="13"/>
     </row>
-    <row r="549" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A549" s="3" t="s">
         <v>1209</v>
       </c>
@@ -17565,7 +17635,7 @@
       </c>
       <c r="H549" s="14"/>
     </row>
-    <row r="550" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>1210</v>
       </c>
@@ -17589,7 +17659,7 @@
       </c>
       <c r="H550" s="13"/>
     </row>
-    <row r="551" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A551" s="3" t="s">
         <v>1115</v>
       </c>
@@ -17613,7 +17683,7 @@
       </c>
       <c r="H551" s="14"/>
     </row>
-    <row r="552" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
         <v>1212</v>
       </c>
@@ -17633,7 +17703,7 @@
       </c>
       <c r="H552" s="13"/>
     </row>
-    <row r="553" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A553" s="3" t="s">
         <v>1214</v>
       </c>
@@ -17657,7 +17727,7 @@
       </c>
       <c r="H553" s="14"/>
     </row>
-    <row r="554" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>1216</v>
       </c>
@@ -17681,7 +17751,7 @@
       </c>
       <c r="H554" s="13"/>
     </row>
-    <row r="555" spans="1:8" ht="204" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A555" s="3" t="s">
         <v>1219</v>
       </c>
@@ -17705,7 +17775,7 @@
       </c>
       <c r="H555" s="14"/>
     </row>
-    <row r="556" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
         <v>1220</v>
       </c>
@@ -17723,7 +17793,7 @@
       </c>
       <c r="H556" s="13"/>
     </row>
-    <row r="557" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A557" s="3" t="s">
         <v>1221</v>
       </c>
@@ -17745,7 +17815,7 @@
       </c>
       <c r="H557" s="14"/>
     </row>
-    <row r="558" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>1223</v>
       </c>
@@ -17767,7 +17837,7 @@
       </c>
       <c r="H558" s="13"/>
     </row>
-    <row r="559" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A559" s="3" t="s">
         <v>1224</v>
       </c>
@@ -17789,7 +17859,7 @@
       </c>
       <c r="H559" s="14"/>
     </row>
-    <row r="560" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
         <v>1226</v>
       </c>
@@ -17813,7 +17883,7 @@
       </c>
       <c r="H560" s="13"/>
     </row>
-    <row r="561" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A561" s="3" t="s">
         <v>1228</v>
       </c>
@@ -17837,7 +17907,7 @@
       </c>
       <c r="H561" s="14"/>
     </row>
-    <row r="562" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
         <v>1231</v>
       </c>
@@ -17861,7 +17931,7 @@
       </c>
       <c r="H562" s="13"/>
     </row>
-    <row r="563" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A563" s="3" t="s">
         <v>1234</v>
       </c>
@@ -17885,7 +17955,7 @@
       </c>
       <c r="H563" s="14"/>
     </row>
-    <row r="564" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
         <v>1235</v>
       </c>
@@ -17907,7 +17977,7 @@
       </c>
       <c r="H564" s="13"/>
     </row>
-    <row r="565" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A565" s="3" t="s">
         <v>1237</v>
       </c>
@@ -17931,7 +18001,7 @@
       </c>
       <c r="H565" s="14"/>
     </row>
-    <row r="566" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
         <v>1239</v>
       </c>
@@ -17955,7 +18025,7 @@
       </c>
       <c r="H566" s="13"/>
     </row>
-    <row r="567" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A567" s="3" t="s">
         <v>1144</v>
       </c>
@@ -17979,7 +18049,7 @@
       </c>
       <c r="H567" s="14"/>
     </row>
-    <row r="568" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>1240</v>
       </c>
@@ -18003,7 +18073,7 @@
       </c>
       <c r="H568" s="13"/>
     </row>
-    <row r="569" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A569" s="3" t="s">
         <v>1242</v>
       </c>
@@ -18027,7 +18097,7 @@
       </c>
       <c r="H569" s="14"/>
     </row>
-    <row r="570" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
         <v>1243</v>
       </c>
@@ -18049,7 +18119,7 @@
       </c>
       <c r="H570" s="13"/>
     </row>
-    <row r="571" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A571" s="3" t="s">
         <v>1246</v>
       </c>
@@ -18071,7 +18141,7 @@
       </c>
       <c r="H571" s="14"/>
     </row>
-    <row r="572" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
         <v>1195</v>
       </c>
@@ -18095,7 +18165,7 @@
       </c>
       <c r="H572" s="13"/>
     </row>
-    <row r="573" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A573" s="3" t="s">
         <v>1248</v>
       </c>
@@ -18117,7 +18187,7 @@
       </c>
       <c r="H573" s="14"/>
     </row>
-    <row r="574" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
         <v>1203</v>
       </c>
@@ -18141,7 +18211,7 @@
       </c>
       <c r="H574" s="13"/>
     </row>
-    <row r="575" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A575" s="3" t="s">
         <v>1205</v>
       </c>
@@ -18165,7 +18235,7 @@
       </c>
       <c r="H575" s="14"/>
     </row>
-    <row r="576" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
         <v>1250</v>
       </c>
@@ -18187,7 +18257,7 @@
       </c>
       <c r="H576" s="13"/>
     </row>
-    <row r="577" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A577" s="3" t="s">
         <v>1251</v>
       </c>
@@ -18209,7 +18279,7 @@
       </c>
       <c r="H577" s="14"/>
     </row>
-    <row r="578" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
         <v>1254</v>
       </c>
@@ -18233,7 +18303,7 @@
       </c>
       <c r="H578" s="13"/>
     </row>
-    <row r="579" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A579" s="3" t="s">
         <v>1256</v>
       </c>
@@ -18257,7 +18327,7 @@
       </c>
       <c r="H579" s="14"/>
     </row>
-    <row r="580" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
         <v>1258</v>
       </c>
@@ -18281,7 +18351,7 @@
       </c>
       <c r="H580" s="13"/>
     </row>
-    <row r="581" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A581" s="3" t="s">
         <v>1251</v>
       </c>
@@ -18303,7 +18373,7 @@
       </c>
       <c r="H581" s="14"/>
     </row>
-    <row r="582" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
         <v>1259</v>
       </c>
@@ -18325,7 +18395,7 @@
       </c>
       <c r="H582" s="13"/>
     </row>
-    <row r="583" spans="1:8" ht="242.25" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A583" s="3" t="s">
         <v>1261</v>
       </c>
@@ -18349,7 +18419,7 @@
       </c>
       <c r="H583" s="14"/>
     </row>
-    <row r="584" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
         <v>1262</v>
       </c>
@@ -18373,7 +18443,7 @@
       </c>
       <c r="H584" s="13"/>
     </row>
-    <row r="585" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A585" s="3" t="s">
         <v>1264</v>
       </c>
@@ -18395,7 +18465,7 @@
       </c>
       <c r="H585" s="14"/>
     </row>
-    <row r="586" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
         <v>1266</v>
       </c>
@@ -18419,7 +18489,7 @@
       </c>
       <c r="H586" s="13"/>
     </row>
-    <row r="587" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A587" s="3" t="s">
         <v>1267</v>
       </c>
@@ -18443,7 +18513,7 @@
       </c>
       <c r="H587" s="14"/>
     </row>
-    <row r="588" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
         <v>1267</v>
       </c>
@@ -18467,7 +18537,7 @@
       </c>
       <c r="H588" s="13"/>
     </row>
-    <row r="589" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A589" s="3" t="s">
         <v>1270</v>
       </c>
@@ -18491,7 +18561,7 @@
       </c>
       <c r="H589" s="14"/>
     </row>
-    <row r="590" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
         <v>1272</v>
       </c>
@@ -18515,7 +18585,7 @@
       </c>
       <c r="H590" s="13"/>
     </row>
-    <row r="591" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A591" s="3" t="s">
         <v>1274</v>
       </c>
@@ -18539,7 +18609,7 @@
       </c>
       <c r="H591" s="14"/>
     </row>
-    <row r="592" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
         <v>1276</v>
       </c>
@@ -18557,7 +18627,7 @@
       </c>
       <c r="H592" s="13"/>
     </row>
-    <row r="593" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A593" s="3" t="s">
         <v>1278</v>
       </c>
@@ -18581,7 +18651,7 @@
       </c>
       <c r="H593" s="14"/>
     </row>
-    <row r="594" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
         <v>1270</v>
       </c>
@@ -18605,7 +18675,7 @@
       </c>
       <c r="H594" s="13"/>
     </row>
-    <row r="595" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A595" s="3" t="s">
         <v>1280</v>
       </c>
@@ -18629,7 +18699,7 @@
       </c>
       <c r="H595" s="14"/>
     </row>
-    <row r="596" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
         <v>1281</v>
       </c>
@@ -18651,7 +18721,7 @@
       </c>
       <c r="H596" s="13"/>
     </row>
-    <row r="597" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A597" s="3" t="s">
         <v>1283</v>
       </c>
@@ -18675,7 +18745,7 @@
       </c>
       <c r="H597" s="14"/>
     </row>
-    <row r="598" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
         <v>1285</v>
       </c>
@@ -18699,7 +18769,7 @@
       </c>
       <c r="H598" s="13"/>
     </row>
-    <row r="599" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A599" s="3" t="s">
         <v>1287</v>
       </c>
@@ -18723,7 +18793,7 @@
       </c>
       <c r="H599" s="14"/>
     </row>
-    <row r="600" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
         <v>1288</v>
       </c>
@@ -18745,7 +18815,7 @@
       </c>
       <c r="H600" s="13"/>
     </row>
-    <row r="601" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A601" s="3" t="s">
         <v>1290</v>
       </c>
@@ -18769,7 +18839,7 @@
       </c>
       <c r="H601" s="14"/>
     </row>
-    <row r="602" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
         <v>1292</v>
       </c>
@@ -18793,7 +18863,7 @@
       </c>
       <c r="H602" s="13"/>
     </row>
-    <row r="603" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A603" s="3" t="s">
         <v>1293</v>
       </c>
@@ -18815,7 +18885,7 @@
       </c>
       <c r="H603" s="14"/>
     </row>
-    <row r="604" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
         <v>1295</v>
       </c>
@@ -18839,7 +18909,7 @@
       </c>
       <c r="H604" s="13"/>
     </row>
-    <row r="605" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A605" s="3" t="s">
         <v>1298</v>
       </c>
@@ -18863,7 +18933,7 @@
       </c>
       <c r="H605" s="14"/>
     </row>
-    <row r="606" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
         <v>1300</v>
       </c>
@@ -18887,7 +18957,7 @@
       </c>
       <c r="H606" s="13"/>
     </row>
-    <row r="607" spans="1:8" ht="204" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A607" s="3" t="s">
         <v>1301</v>
       </c>
@@ -18909,7 +18979,7 @@
       </c>
       <c r="H607" s="14"/>
     </row>
-    <row r="608" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
         <v>1250</v>
       </c>
@@ -18931,7 +19001,7 @@
       </c>
       <c r="H608" s="13"/>
     </row>
-    <row r="609" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A609" s="3" t="s">
         <v>1303</v>
       </c>
@@ -18953,7 +19023,7 @@
       </c>
       <c r="H609" s="14"/>
     </row>
-    <row r="610" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
         <v>1305</v>
       </c>
@@ -18977,7 +19047,7 @@
       </c>
       <c r="H610" s="13"/>
     </row>
-    <row r="611" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A611" s="3" t="s">
         <v>1307</v>
       </c>
@@ -19001,7 +19071,7 @@
       </c>
       <c r="H611" s="14"/>
     </row>
-    <row r="612" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
         <v>1309</v>
       </c>
@@ -19025,7 +19095,7 @@
       </c>
       <c r="H612" s="13"/>
     </row>
-    <row r="613" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A613" s="3" t="s">
         <v>1311</v>
       </c>
@@ -19049,7 +19119,7 @@
       </c>
       <c r="H613" s="14"/>
     </row>
-    <row r="614" spans="1:8" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
         <v>1313</v>
       </c>
@@ -19071,7 +19141,7 @@
       </c>
       <c r="H614" s="13"/>
     </row>
-    <row r="615" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A615" s="3" t="s">
         <v>1314</v>
       </c>
@@ -19095,7 +19165,7 @@
       </c>
       <c r="H615" s="14"/>
     </row>
-    <row r="616" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
         <v>1316</v>
       </c>
@@ -19119,7 +19189,7 @@
       </c>
       <c r="H616" s="13"/>
     </row>
-    <row r="617" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A617" s="3" t="s">
         <v>1319</v>
       </c>
@@ -19143,7 +19213,7 @@
       </c>
       <c r="H617" s="14"/>
     </row>
-    <row r="618" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
         <v>1288</v>
       </c>
@@ -19167,7 +19237,7 @@
       </c>
       <c r="H618" s="13"/>
     </row>
-    <row r="619" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A619" s="3" t="s">
         <v>1321</v>
       </c>
@@ -19191,7 +19261,7 @@
       </c>
       <c r="H619" s="14"/>
     </row>
-    <row r="620" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
         <v>1324</v>
       </c>
@@ -19215,7 +19285,7 @@
       </c>
       <c r="H620" s="13"/>
     </row>
-    <row r="621" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A621" s="3" t="s">
         <v>1325</v>
       </c>
@@ -19235,7 +19305,7 @@
       </c>
       <c r="H621" s="14"/>
     </row>
-    <row r="622" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
         <v>1327</v>
       </c>
@@ -19259,7 +19329,7 @@
       </c>
       <c r="H622" s="13"/>
     </row>
-    <row r="623" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A623" s="3" t="s">
         <v>1314</v>
       </c>

--- a/all.xlsx
+++ b/all.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4148" uniqueCount="1418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4163" uniqueCount="1428">
   <si>
     <t>Data Types</t>
   </si>
@@ -4318,6 +4318,37 @@
   </si>
   <si>
     <t>https://archive.ics.uci.edu/ml/machine-learning-databases/tae/tae.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/tic-tac-toe/tic-tac-toe.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/thyroid-disease/dis.data
+https://archive.ics.uci.edu/ml/machine-learning-databases/thyroid-disease/dis.test</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/university/university.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/voting-records/house-votes-84.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/water-treatment/water-treatment.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/wine/wine.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/yeast/yeast.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/zoo/zoo.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/auslan-mld/allsigns.tar.gz</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/auslan2-mld/tctodd.tar.gz</t>
   </si>
 </sst>
 </file>
@@ -4809,8 +4840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H95" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H100" sqref="H100"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7257,7 +7288,9 @@
       <c r="G100" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H100" s="13"/>
+      <c r="H100" s="13" t="s">
+        <v>1418</v>
+      </c>
     </row>
     <row r="101" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
@@ -7281,7 +7314,9 @@
       <c r="G101" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H101" s="14"/>
+      <c r="H101" s="14" t="s">
+        <v>1419</v>
+      </c>
     </row>
     <row r="102" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
@@ -7305,7 +7340,9 @@
       <c r="G102" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H102" s="13"/>
+      <c r="H102" s="13" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="103" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
@@ -7329,7 +7366,9 @@
       <c r="G103" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H103" s="14"/>
+      <c r="H103" s="13" t="s">
+        <v>1420</v>
+      </c>
     </row>
     <row r="104" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
@@ -7353,7 +7392,9 @@
       <c r="G104" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H104" s="13"/>
+      <c r="H104" s="13" t="s">
+        <v>1421</v>
+      </c>
     </row>
     <row r="105" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
@@ -7377,7 +7418,9 @@
       <c r="G105" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H105" s="14"/>
+      <c r="H105" s="14" t="s">
+        <v>1422</v>
+      </c>
     </row>
     <row r="106" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
@@ -7401,7 +7444,9 @@
       <c r="G106" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H106" s="13"/>
+      <c r="H106" s="13" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="107" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
@@ -7425,7 +7470,9 @@
       <c r="G107" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H107" s="14"/>
+      <c r="H107" s="14" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="108" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
@@ -7449,7 +7496,9 @@
       <c r="G108" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H108" s="13"/>
+      <c r="H108" s="13" t="s">
+        <v>1423</v>
+      </c>
     </row>
     <row r="109" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
@@ -7473,7 +7522,9 @@
       <c r="G109" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H109" s="14"/>
+      <c r="H109" s="14" t="s">
+        <v>1424</v>
+      </c>
     </row>
     <row r="110" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
@@ -7497,7 +7548,9 @@
       <c r="G110" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H110" s="13"/>
+      <c r="H110" s="13" t="s">
+        <v>1425</v>
+      </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
@@ -7509,7 +7562,9 @@
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
-      <c r="H111" s="14"/>
+      <c r="H111" s="14" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="112" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -7527,7 +7582,9 @@
       <c r="G112" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H112" s="13"/>
+      <c r="H112" s="13" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="113" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
@@ -7551,7 +7608,9 @@
       <c r="G113" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H113" s="14"/>
+      <c r="H113" s="14" t="s">
+        <v>1426</v>
+      </c>
     </row>
     <row r="114" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
@@ -7575,7 +7634,9 @@
       <c r="G114" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="H114" s="13"/>
+      <c r="H114" s="13" t="s">
+        <v>1427</v>
+      </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">

--- a/all.xlsx
+++ b/all.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4163" uniqueCount="1428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4178" uniqueCount="1440">
   <si>
     <t>Data Types</t>
   </si>
@@ -4349,6 +4349,57 @@
   </si>
   <si>
     <t>https://archive.ics.uci.edu/ml/machine-learning-databases/auslan2-mld/tctodd.tar.gz</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/census-income-mld/census-income.test.gz
+https://archive.ics.uci.edu/ml/machine-learning-databases/census-income-mld/census-income.data.gz</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/census1990-mld/USCensus1990.data.txt</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/coil-mld/analysis.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/CorelFeatures-mld/LayoutHistogram.asc.gz
+https://archive.ics.uci.edu/ml/machine-learning-databases/CorelFeatures-mld/LayoutHistogram.asc.gz
+https://archive.ics.uci.edu/ml/machine-learning-databases/CorelFeatures-mld/ColorMoments.asc.gz
+https://archive.ics.uci.edu/ml/machine-learning-databases/CorelFeatures-mld/CoocTexture.asc.gz</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/eeg-mld/SMNI_CMI_TEST.tar.gz
+https://archive.ics.uci.edu/ml/machine-learning-databases/eeg-mld/SMNI_CMI_TRAIN.tar.gz</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/el_nino-mld/elnino.gz</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/entree-mld/entree_data.tar.gz</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/tic-mld/ticdata2000.txt
+https://archive.ics.uci.edu/ml/machine-learning-databases/tic-mld/ticeval2000.txt
+https://archive.ics.uci.edu/ml/machine-learning-databases/tic-mld/tictgts2000.txt</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/internet_usage-mld/final_general.dat.gz</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/ipums-mld/s.ipums.la.99.gz
+https://archive.ics.uci.edu/ml/machine-learning-databases/ipums-mld/s.ipums.la.98.gz
+https://archive.ics.uci.edu/ml/machine-learning-databases/ipums-mld/s.ipums.la.97.gz
+https://archive.ics.uci.edu/ml/machine-learning-databases/ipums-mld/ipums.la.99.gz
+https://archive.ics.uci.edu/ml/machine-learning-databases/ipums-mld/ipums.la.98.gz
+https://archive.ics.uci.edu/ml/machine-learning-databases/ipums-mld/ipums.la.97.gz</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/JapaneseVowels-mld/ae.test
+https://archive.ics.uci.edu/ml/machine-learning-databases/JapaneseVowels-mld/ae.train
+https://archive.ics.uci.edu/ml/machine-learning-databases/JapaneseVowels-mld/size_ae.test
+https://archive.ics.uci.edu/ml/machine-learning-databases/JapaneseVowels-mld/size_ae.train</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/kddcup99-mld/kddcup.data.gz</t>
   </si>
 </sst>
 </file>
@@ -4840,20 +4891,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H130" sqref="H130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="90.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="128.5703125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -5184,7 +5235,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
@@ -7658,7 +7709,9 @@
         <v>299</v>
       </c>
       <c r="G115" s="4"/>
-      <c r="H115" s="14"/>
+      <c r="H115" s="14" t="s">
+        <v>1429</v>
+      </c>
     </row>
     <row r="116" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
@@ -7682,9 +7735,11 @@
       <c r="G116" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="H116" s="13"/>
-    </row>
-    <row r="117" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H116" s="13" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>302</v>
       </c>
@@ -7704,9 +7759,11 @@
       <c r="G117" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H117" s="14"/>
-    </row>
-    <row r="118" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H117" s="14" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>304</v>
       </c>
@@ -7726,7 +7783,9 @@
       <c r="G118" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H118" s="13"/>
+      <c r="H118" s="13" t="s">
+        <v>1431</v>
+      </c>
     </row>
     <row r="119" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
@@ -7742,7 +7801,9 @@
       <c r="G119" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="H119" s="14"/>
+      <c r="H119" s="14" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="120" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
@@ -7764,7 +7825,9 @@
       <c r="G120" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H120" s="13"/>
+      <c r="H120" s="13" t="s">
+        <v>1432</v>
+      </c>
     </row>
     <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
@@ -7786,7 +7849,9 @@
       <c r="G121" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H121" s="14"/>
+      <c r="H121" s="13" t="s">
+        <v>1433</v>
+      </c>
     </row>
     <row r="122" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
@@ -7808,7 +7873,9 @@
       <c r="G122" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="H122" s="13"/>
+      <c r="H122" s="13" t="s">
+        <v>1434</v>
+      </c>
     </row>
     <row r="123" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
@@ -7830,9 +7897,11 @@
       <c r="G123" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H123" s="14"/>
-    </row>
-    <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H123" s="14" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>319</v>
       </c>
@@ -7854,7 +7923,9 @@
       <c r="G124" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="H124" s="13"/>
+      <c r="H124" s="13" t="s">
+        <v>1435</v>
+      </c>
     </row>
     <row r="125" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
@@ -7876,7 +7947,9 @@
       <c r="G125" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H125" s="14"/>
+      <c r="H125" s="14" t="s">
+        <v>1436</v>
+      </c>
     </row>
     <row r="126" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
@@ -7898,7 +7971,9 @@
       <c r="G126" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H126" s="13"/>
+      <c r="H126" s="13" t="s">
+        <v>1437</v>
+      </c>
     </row>
     <row r="127" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
@@ -7920,7 +7995,9 @@
         <v>128</v>
       </c>
       <c r="G127" s="4"/>
-      <c r="H127" s="14"/>
+      <c r="H127" s="14" t="s">
+        <v>1438</v>
+      </c>
     </row>
     <row r="128" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
@@ -7944,7 +8021,9 @@
       <c r="G128" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H128" s="13"/>
+      <c r="H128" s="13" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="129" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
@@ -7968,7 +8047,9 @@
       <c r="G129" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H129" s="14"/>
+      <c r="H129" s="14" t="s">
+        <v>1439</v>
+      </c>
     </row>
     <row r="130" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">

--- a/all.xlsx
+++ b/all.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4178" uniqueCount="1440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4196" uniqueCount="1455">
   <si>
     <t>Data Types</t>
   </si>
@@ -4400,6 +4400,59 @@
   </si>
   <si>
     <t>https://archive.ics.uci.edu/ml/machine-learning-databases/kddcup99-mld/kddcup.data.gz</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/msnbc-mld/msnbc990928.seq.gz</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/pioneer-mld/move.data.gz
+https://archive.ics.uci.edu/ml/machine-learning-databases/pioneer-mld/move.data.gz
+https://archive.ics.uci.edu/ml/machine-learning-databases/pioneer-mld/turn.data.gz</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/synthetic-mld/synthetic.data.gz</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/reuters21578-mld/reuters21578.tar.gz</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/synthetic_control-mld/synthetic_control.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/robotfailure-mld/lp1.data
+https://archive.ics.uci.edu/ml/machine-learning-databases/robotfailure-mld/lp2.data
+https://archive.ics.uci.edu/ml/machine-learning-databases/robotfailure-mld/lp3.data
+https://archive.ics.uci.edu/ml/machine-learning-databases/robotfailure-mld/lp4.data
+https://archive.ics.uci.edu/ml/machine-learning-databases/robotfailure-mld/lp5.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/SyskillWebert-mld/SyskillWebert.tar.gz</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/UNIX_user_data-mld/UNIX_user_data.tar.gz</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/volcanoes-mld/volcanoes.tar.gz</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/statlog/australian/australian.dat</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/statlog/german/german.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/statlog/heart/heart.dat</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/statlog/satimage/sat.tst
+https://archive.ics.uci.edu/ml/machine-learning-databases/statlog/satimage/sat.tst</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/statlog/segment/segment.dat</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/statlog/shuttle/shuttle.trn.Z
+https://archive.ics.uci.edu/ml/machine-learning-databases/statlog/shuttle/shuttle.tst</t>
   </si>
 </sst>
 </file>
@@ -4891,8 +4944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H130" sqref="H130"/>
+    <sheetView tabSelected="1" topLeftCell="A143" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5007,7 +5060,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -5285,7 +5338,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
@@ -5311,7 +5364,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>64</v>
       </c>
@@ -5337,7 +5390,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>69</v>
       </c>
@@ -5465,7 +5518,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>84</v>
       </c>
@@ -7101,7 +7154,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>246</v>
       </c>
@@ -8065,7 +8118,9 @@
       <c r="G130" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="H130" s="13"/>
+      <c r="H130" s="13" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="131" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
@@ -8083,9 +8138,11 @@
       <c r="G131" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H131" s="14"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H131" s="14" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>337</v>
       </c>
@@ -8101,7 +8158,9 @@
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
-      <c r="H132" s="13"/>
+      <c r="H132" s="13" t="s">
+        <v>1440</v>
+      </c>
     </row>
     <row r="133" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
@@ -8119,7 +8178,9 @@
       <c r="G133" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="H133" s="14"/>
+      <c r="H133" s="14" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="134" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
@@ -8137,7 +8198,9 @@
       <c r="G134" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H134" s="13"/>
+      <c r="H134" s="13" t="s">
+        <v>1441</v>
+      </c>
     </row>
     <row r="135" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
@@ -8155,7 +8218,9 @@
       <c r="G135" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H135" s="14"/>
+      <c r="H135" s="14" t="s">
+        <v>1442</v>
+      </c>
     </row>
     <row r="136" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
@@ -8179,7 +8244,9 @@
       <c r="G136" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H136" s="13"/>
+      <c r="H136" s="13" t="s">
+        <v>1443</v>
+      </c>
     </row>
     <row r="137" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
@@ -8203,9 +8270,11 @@
       <c r="G137" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H137" s="14"/>
-    </row>
-    <row r="138" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H137" s="14" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>349</v>
       </c>
@@ -8225,7 +8294,9 @@
       <c r="G138" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H138" s="13"/>
+      <c r="H138" s="14" t="s">
+        <v>1444</v>
+      </c>
     </row>
     <row r="139" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
@@ -8249,7 +8320,9 @@
       <c r="G139" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H139" s="14"/>
+      <c r="H139" s="14" t="s">
+        <v>1446</v>
+      </c>
     </row>
     <row r="140" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
@@ -8263,7 +8336,9 @@
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
-      <c r="H140" s="13"/>
+      <c r="H140" s="13" t="s">
+        <v>1447</v>
+      </c>
     </row>
     <row r="141" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
@@ -8279,9 +8354,11 @@
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
-      <c r="H141" s="14"/>
-    </row>
-    <row r="142" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="H141" s="14" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>359</v>
       </c>
@@ -8301,7 +8378,9 @@
         <v>16</v>
       </c>
       <c r="G142" s="2"/>
-      <c r="H142" s="13"/>
+      <c r="H142" s="13" t="s">
+        <v>1449</v>
+      </c>
     </row>
     <row r="143" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
@@ -8325,7 +8404,9 @@
       <c r="G143" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H143" s="14"/>
+      <c r="H143" s="14" t="s">
+        <v>1450</v>
+      </c>
     </row>
     <row r="144" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
@@ -8347,7 +8428,9 @@
         <v>74</v>
       </c>
       <c r="G144" s="2"/>
-      <c r="H144" s="13"/>
+      <c r="H144" s="13" t="s">
+        <v>1451</v>
+      </c>
     </row>
     <row r="145" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
@@ -8371,7 +8454,9 @@
       <c r="G145" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H145" s="14"/>
+      <c r="H145" s="14" t="s">
+        <v>1452</v>
+      </c>
     </row>
     <row r="146" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
@@ -8395,7 +8480,9 @@
       <c r="G146" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H146" s="13"/>
+      <c r="H146" s="13" t="s">
+        <v>1453</v>
+      </c>
     </row>
     <row r="147" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
@@ -8417,7 +8504,9 @@
         <v>58</v>
       </c>
       <c r="G147" s="4"/>
-      <c r="H147" s="14"/>
+      <c r="H147" s="14" t="s">
+        <v>1454</v>
+      </c>
     </row>
     <row r="148" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
@@ -9021,7 +9110,7 @@
       </c>
       <c r="H174" s="13"/>
     </row>
-    <row r="175" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>430</v>
       </c>
@@ -9535,7 +9624,7 @@
       </c>
       <c r="H196" s="13"/>
     </row>
-    <row r="197" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>480</v>
       </c>
@@ -9689,7 +9778,7 @@
       </c>
       <c r="H203" s="14"/>
     </row>
-    <row r="204" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>496</v>
       </c>
@@ -10041,7 +10130,7 @@
       </c>
       <c r="H218" s="13"/>
     </row>
-    <row r="219" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>534</v>
       </c>
@@ -10647,7 +10736,7 @@
       </c>
       <c r="H244" s="13"/>
     </row>
-    <row r="245" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>597</v>
       </c>
@@ -10975,7 +11064,7 @@
       </c>
       <c r="H258" s="13"/>
     </row>
-    <row r="259" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>627</v>
       </c>
@@ -11067,7 +11156,7 @@
       </c>
       <c r="H262" s="13"/>
     </row>
-    <row r="263" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>636</v>
       </c>
@@ -11091,7 +11180,7 @@
       </c>
       <c r="H263" s="14"/>
     </row>
-    <row r="264" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>638</v>
       </c>
@@ -11683,7 +11772,7 @@
       </c>
       <c r="H289" s="14"/>
     </row>
-    <row r="290" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>688</v>
       </c>
@@ -11959,7 +12048,7 @@
       </c>
       <c r="H301" s="14"/>
     </row>
-    <row r="302" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>714</v>
       </c>
@@ -12149,7 +12238,7 @@
       </c>
       <c r="H309" s="14"/>
     </row>
-    <row r="310" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>727</v>
       </c>
@@ -12591,7 +12680,7 @@
       </c>
       <c r="H328" s="13"/>
     </row>
-    <row r="329" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>774</v>
       </c>
@@ -12615,7 +12704,7 @@
       </c>
       <c r="H329" s="14"/>
     </row>
-    <row r="330" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>776</v>
       </c>
@@ -12827,7 +12916,7 @@
       </c>
       <c r="H338" s="13"/>
     </row>
-    <row r="339" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>793</v>
       </c>
@@ -13089,7 +13178,7 @@
       </c>
       <c r="H349" s="14"/>
     </row>
-    <row r="350" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>816</v>
       </c>
@@ -13113,7 +13202,7 @@
       </c>
       <c r="H350" s="13"/>
     </row>
-    <row r="351" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>818</v>
       </c>
@@ -13137,7 +13226,7 @@
       </c>
       <c r="H351" s="14"/>
     </row>
-    <row r="352" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>820</v>
       </c>
@@ -13231,7 +13320,7 @@
       </c>
       <c r="H355" s="14"/>
     </row>
-    <row r="356" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>828</v>
       </c>
@@ -13251,7 +13340,7 @@
       </c>
       <c r="H356" s="13"/>
     </row>
-    <row r="357" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>830</v>
       </c>
@@ -13955,7 +14044,7 @@
       </c>
       <c r="H386" s="13"/>
     </row>
-    <row r="387" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
         <v>896</v>
       </c>
@@ -14143,7 +14232,7 @@
       </c>
       <c r="H394" s="13"/>
     </row>
-    <row r="395" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
         <v>912</v>
       </c>
@@ -14191,7 +14280,7 @@
       </c>
       <c r="H396" s="13"/>
     </row>
-    <row r="397" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
         <v>915</v>
       </c>
@@ -14709,7 +14798,7 @@
       </c>
       <c r="H418" s="13"/>
     </row>
-    <row r="419" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
         <v>956</v>
       </c>
@@ -14873,7 +14962,7 @@
       </c>
       <c r="H425" s="14"/>
     </row>
-    <row r="426" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>969</v>
       </c>
@@ -15039,7 +15128,7 @@
       </c>
       <c r="H432" s="13"/>
     </row>
-    <row r="433" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A433" s="3" t="s">
         <v>985</v>
       </c>
@@ -15135,7 +15224,7 @@
       </c>
       <c r="H436" s="13"/>
     </row>
-    <row r="437" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A437" s="3" t="s">
         <v>990</v>
       </c>
@@ -15157,7 +15246,7 @@
       </c>
       <c r="H437" s="14"/>
     </row>
-    <row r="438" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>992</v>
       </c>
@@ -15203,7 +15292,7 @@
       </c>
       <c r="H439" s="14"/>
     </row>
-    <row r="440" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>996</v>
       </c>
@@ -15459,7 +15548,7 @@
       </c>
       <c r="H450" s="13"/>
     </row>
-    <row r="451" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
         <v>1017</v>
       </c>
@@ -15527,7 +15616,7 @@
       </c>
       <c r="H453" s="14"/>
     </row>
-    <row r="454" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>1022</v>
       </c>
@@ -15711,7 +15800,7 @@
       </c>
       <c r="H461" s="14"/>
     </row>
-    <row r="462" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>1038</v>
       </c>
@@ -15943,7 +16032,7 @@
       </c>
       <c r="H471" s="14"/>
     </row>
-    <row r="472" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>1056</v>
       </c>
@@ -16013,7 +16102,7 @@
       </c>
       <c r="H474" s="13"/>
     </row>
-    <row r="475" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
         <v>1063</v>
       </c>
@@ -16823,7 +16912,7 @@
       </c>
       <c r="H508" s="13"/>
     </row>
-    <row r="509" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A509" s="3" t="s">
         <v>1135</v>
       </c>
@@ -17145,7 +17234,7 @@
       </c>
       <c r="H522" s="13"/>
     </row>
-    <row r="523" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A523" s="3" t="s">
         <v>1161</v>
       </c>
@@ -17403,7 +17492,7 @@
       </c>
       <c r="H533" s="14"/>
     </row>
-    <row r="534" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>1183</v>
       </c>
@@ -17707,7 +17796,7 @@
       </c>
       <c r="H546" s="13"/>
     </row>
-    <row r="547" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A547" s="3" t="s">
         <v>1207</v>
       </c>
@@ -17869,7 +17958,7 @@
       </c>
       <c r="H553" s="14"/>
     </row>
-    <row r="554" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>1216</v>
       </c>
@@ -17957,7 +18046,7 @@
       </c>
       <c r="H557" s="14"/>
     </row>
-    <row r="558" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>1223</v>
       </c>
@@ -18001,7 +18090,7 @@
       </c>
       <c r="H559" s="14"/>
     </row>
-    <row r="560" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
         <v>1226</v>
       </c>
@@ -18025,7 +18114,7 @@
       </c>
       <c r="H560" s="13"/>
     </row>
-    <row r="561" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A561" s="3" t="s">
         <v>1228</v>
       </c>
@@ -18143,7 +18232,7 @@
       </c>
       <c r="H565" s="14"/>
     </row>
-    <row r="566" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
         <v>1239</v>
       </c>
@@ -18585,7 +18674,7 @@
       </c>
       <c r="H584" s="13"/>
     </row>
-    <row r="585" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A585" s="3" t="s">
         <v>1264</v>
       </c>
@@ -19027,7 +19116,7 @@
       </c>
       <c r="H603" s="14"/>
     </row>
-    <row r="604" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
         <v>1295</v>
       </c>
@@ -19051,7 +19140,7 @@
       </c>
       <c r="H604" s="13"/>
     </row>
-    <row r="605" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A605" s="3" t="s">
         <v>1298</v>
       </c>
@@ -19471,7 +19560,7 @@
       </c>
       <c r="H622" s="13"/>
     </row>
-    <row r="623" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A623" s="3" t="s">
         <v>1314</v>
       </c>

--- a/all.xlsx
+++ b/all.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4196" uniqueCount="1455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4211" uniqueCount="1467">
   <si>
     <t>Data Types</t>
   </si>
@@ -4453,6 +4453,53 @@
   <si>
     <t>https://archive.ics.uci.edu/ml/machine-learning-databases/statlog/shuttle/shuttle.trn.Z
 https://archive.ics.uci.edu/ml/machine-learning-databases/statlog/shuttle/shuttle.tst</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/statlog/vehicle/xaa.dat
+https://archive.ics.uci.edu/ml/machine-learning-databases/statlog/vehicle/xab.dat
+https://archive.ics.uci.edu/ml/machine-learning-databases/statlog/vehicle/xac.dat
+https://archive.ics.uci.edu/ml/machine-learning-databases/statlog/vehicle/xad.dat
+https://archive.ics.uci.edu/ml/machine-learning-databases/statlog/vehicle/xae.dat
+https://archive.ics.uci.edu/ml/machine-learning-databases/statlog/vehicle/xaf.dat
+https://archive.ics.uci.edu/ml/machine-learning-databases/statlog/vehicle/xag.dat
+https://archive.ics.uci.edu/ml/machine-learning-databases/statlog/vehicle/xah.dat
+https://archive.ics.uci.edu/ml/machine-learning-databases/statlog/vehicle/xai.dat</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/undocumented/connectionist-bench/nettalk/nettalk.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/undocumented/connectionist-bench/sonar/sonar.all-data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/undocumented/connectionist-bench/vowel/vowel.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/undocumented/sigillito/folding-nicer-format.data
+https://archive.ics.uci.edu/ml/machine-learning-databases/undocumented/sigillito/secondary-structure.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/undocumented/taylor/cloud.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/event-detection/CalIt2.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/event-detection/Dodgers.data
+https://archive.ics.uci.edu/ml/machine-learning-databases/event-detection/Dodgers.events</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/poker/poker-hand-testing.data
+https://archive.ics.uci.edu/ml/machine-learning-databases/poker/poker-hand-training-true.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/magic/magic04.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/mammographic-masses/mammographic_masses.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/forest-fires/forestfires.csv</t>
   </si>
 </sst>
 </file>
@@ -4944,8 +4991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A163" sqref="A163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8528,7 +8575,9 @@
         <v>188</v>
       </c>
       <c r="G148" s="2"/>
-      <c r="H148" s="13"/>
+      <c r="H148" s="13" t="s">
+        <v>1455</v>
+      </c>
     </row>
     <row r="149" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
@@ -8548,7 +8597,9 @@
         <v>53</v>
       </c>
       <c r="G149" s="4"/>
-      <c r="H149" s="14"/>
+      <c r="H149" s="14" t="s">
+        <v>1456</v>
+      </c>
     </row>
     <row r="150" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
@@ -8570,7 +8621,9 @@
         <v>374</v>
       </c>
       <c r="G150" s="2"/>
-      <c r="H150" s="13"/>
+      <c r="H150" s="13" t="s">
+        <v>1457</v>
+      </c>
     </row>
     <row r="151" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
@@ -8590,7 +8643,9 @@
         <v>63</v>
       </c>
       <c r="G151" s="4"/>
-      <c r="H151" s="14"/>
+      <c r="H151" s="14" t="s">
+        <v>1458</v>
+      </c>
     </row>
     <row r="152" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
@@ -8604,9 +8659,11 @@
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
-      <c r="H152" s="13"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H152" s="13" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>377</v>
       </c>
@@ -8616,7 +8673,9 @@
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
-      <c r="H153" s="14"/>
+      <c r="H153" s="14" t="s">
+        <v>1459</v>
+      </c>
     </row>
     <row r="154" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
@@ -8638,7 +8697,9 @@
       <c r="G154" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H154" s="13"/>
+      <c r="H154" s="13" t="s">
+        <v>1460</v>
+      </c>
     </row>
     <row r="155" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
@@ -8660,7 +8721,9 @@
       <c r="G155" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="H155" s="14"/>
+      <c r="H155" s="14" t="s">
+        <v>1461</v>
+      </c>
     </row>
     <row r="156" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
@@ -8682,7 +8745,9 @@
       <c r="G156" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="H156" s="13"/>
+      <c r="H156" s="13" t="s">
+        <v>1462</v>
+      </c>
     </row>
     <row r="157" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
@@ -8706,7 +8771,9 @@
       <c r="G157" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="H157" s="14"/>
+      <c r="H157" s="14" t="s">
+        <v>1463</v>
+      </c>
     </row>
     <row r="158" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
@@ -8730,7 +8797,9 @@
       <c r="G158" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="H158" s="13"/>
+      <c r="H158" s="13" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="159" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
@@ -8752,7 +8821,9 @@
       <c r="G159" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="H159" s="14"/>
+      <c r="H159" s="14" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="160" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
@@ -8776,7 +8847,9 @@
       <c r="G160" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="H160" s="13"/>
+      <c r="H160" s="13" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="161" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
@@ -8800,7 +8873,9 @@
       <c r="G161" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="H161" s="14"/>
+      <c r="H161" s="14" t="s">
+        <v>1466</v>
+      </c>
     </row>
     <row r="162" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
@@ -8820,7 +8895,9 @@
       <c r="G162" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="H162" s="13"/>
+      <c r="H162" s="13" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="163" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">

--- a/all.xlsx
+++ b/all.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4211" uniqueCount="1467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4232" uniqueCount="1487">
   <si>
     <t>Data Types</t>
   </si>
@@ -4500,6 +4500,84 @@
   </si>
   <si>
     <t>https://archive.ics.uci.edu/ml/machine-learning-databases/forest-fires/forestfires.csv</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/bag-of-words/docword.enron.txt.gz
+https://archive.ics.uci.edu/ml/machine-learning-databases/bag-of-words/docword.kos.txt.gz
+https://archive.ics.uci.edu/ml/machine-learning-databases/bag-of-words/docword.nips.txt.gz
+https://archive.ics.uci.edu/ml/machine-learning-databases/bag-of-words/docword.nytimes.txt.gz
+https://archive.ics.uci.edu/ml/machine-learning-databases/bag-of-words/docword.pubmed.txt.gz</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/concrete/compressive/Concrete_Data.xls</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/hill-valley/Hill_Valley_with_noise_Testing.data
+https://archive.ics.uci.edu/ml/machine-learning-databases/hill-valley/Hill_Valley_with_noise_Training.data
+https://archive.ics.uci.edu/ml/machine-learning-databases/hill-valley/Hill_Valley_without_noise_Testing.data
+https://archive.ics.uci.edu/ml/machine-learning-databases/hill-valley/Hill_Valley_without_noise_Training.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/arcene/ARCENE/arcene_train.data
+https://archive.ics.uci.edu/ml/machine-learning-databases/arcene/ARCENE/arcene_test.data
+https://archive.ics.uci.edu/ml/machine-learning-databases/arcene/ARCENE/arcene_valid.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/dexter/DEXTER/dexter_train.data
+https://archive.ics.uci.edu/ml/machine-learning-databases/dexter/DEXTER/dexter_test.data
+https://archive.ics.uci.edu/ml/machine-learning-databases/dexter/DEXTER/dexter_valid.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/dorothea/DOROTHEA/dorothea_train.data
+https://archive.ics.uci.edu/ml/machine-learning-databases/dorothea/DOROTHEA/dorothea_test.data
+https://archive.ics.uci.edu/ml/machine-learning-databases/dorothea/DOROTHEA/dorothea_valid.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/gisette/GISETTE/gisette_train.data
+https://archive.ics.uci.edu/ml/machine-learning-databases/gisette/GISETTE/gisette_test.data
+https://archive.ics.uci.edu/ml/machine-learning-databases/gisette/GISETTE/gisette_valid.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/ozone/onehr.data
+https://archive.ics.uci.edu/ml/machine-learning-databases/ozone/eighthr.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/abscisic-acid/plantCellSignaling.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/parkinsons/parkinsons.data
+https://archive.ics.uci.edu/ml/machine-learning-databases/parkinsons/telemonitoring/parkinsons_updrs.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/character-trajectories/mixoutALL_shifted.mat</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/blood-transfusion/transfusion.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/uji-penchars/version2/ujipenchars2.txt</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/semeion/semeion.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/secom/secom.data
+https://archive.ics.uci.edu/ml/machine-learning-databases/secom/secom_labels.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/plants/plants.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/libras/movement_libras.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/concrete/slump/slump_test.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/communities/communities.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/acute/diagnosis.data</t>
   </si>
 </sst>
 </file>
@@ -4991,8 +5069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A163" sqref="A163"/>
+    <sheetView tabSelected="1" topLeftCell="A183" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A190" sqref="A190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8921,7 +8999,9 @@
       <c r="G163" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="H163" s="14"/>
+      <c r="H163" s="14" t="s">
+        <v>1467</v>
+      </c>
     </row>
     <row r="164" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
@@ -8945,7 +9025,9 @@
       <c r="G164" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="H164" s="13"/>
+      <c r="H164" s="13" t="s">
+        <v>1468</v>
+      </c>
     </row>
     <row r="165" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
@@ -8969,7 +9051,9 @@
       <c r="G165" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="H165" s="14"/>
+      <c r="H165" s="14" t="s">
+        <v>1469</v>
+      </c>
     </row>
     <row r="166" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
@@ -8993,7 +9077,9 @@
       <c r="G166" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="H166" s="13"/>
+      <c r="H166" s="13" t="s">
+        <v>1470</v>
+      </c>
     </row>
     <row r="167" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
@@ -9017,7 +9103,9 @@
       <c r="G167" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="H167" s="14"/>
+      <c r="H167" s="14" t="s">
+        <v>1471</v>
+      </c>
     </row>
     <row r="168" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
@@ -9041,7 +9129,9 @@
       <c r="G168" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="H168" s="13"/>
+      <c r="H168" s="13" t="s">
+        <v>1472</v>
+      </c>
     </row>
     <row r="169" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
@@ -9065,7 +9155,9 @@
       <c r="G169" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="H169" s="14"/>
+      <c r="H169" s="14" t="s">
+        <v>1473</v>
+      </c>
     </row>
     <row r="170" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
@@ -9089,7 +9181,9 @@
       <c r="G170" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="H170" s="13"/>
+      <c r="H170" s="13" t="s">
+        <v>1474</v>
+      </c>
     </row>
     <row r="171" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
@@ -9113,7 +9207,9 @@
       <c r="G171" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="H171" s="14"/>
+      <c r="H171" s="14" t="s">
+        <v>1474</v>
+      </c>
     </row>
     <row r="172" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
@@ -9137,7 +9233,9 @@
       <c r="G172" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="H172" s="13"/>
+      <c r="H172" s="13" t="s">
+        <v>1475</v>
+      </c>
     </row>
     <row r="173" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
@@ -9161,7 +9259,9 @@
       <c r="G173" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="H173" s="14"/>
+      <c r="H173" s="14" t="s">
+        <v>1476</v>
+      </c>
     </row>
     <row r="174" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
@@ -9185,7 +9285,9 @@
       <c r="G174" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="H174" s="13"/>
+      <c r="H174" s="13" t="s">
+        <v>1477</v>
+      </c>
     </row>
     <row r="175" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
@@ -9209,7 +9311,9 @@
       <c r="G175" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="H175" s="14"/>
+      <c r="H175" s="14" t="s">
+        <v>1478</v>
+      </c>
     </row>
     <row r="176" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
@@ -9231,7 +9335,9 @@
       <c r="G176" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="H176" s="13"/>
+      <c r="H176" s="13" t="s">
+        <v>1479</v>
+      </c>
     </row>
     <row r="177" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
@@ -9255,7 +9361,9 @@
       <c r="G177" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="H177" s="14"/>
+      <c r="H177" s="14" t="s">
+        <v>1480</v>
+      </c>
     </row>
     <row r="178" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
@@ -9279,7 +9387,9 @@
       <c r="G178" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="H178" s="13"/>
+      <c r="H178" s="13" t="s">
+        <v>1481</v>
+      </c>
     </row>
     <row r="179" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
@@ -9303,7 +9413,9 @@
       <c r="G179" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="H179" s="14"/>
+      <c r="H179" s="14" t="s">
+        <v>1482</v>
+      </c>
     </row>
     <row r="180" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
@@ -9327,7 +9439,9 @@
       <c r="G180" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="H180" s="13"/>
+      <c r="H180" s="13" t="s">
+        <v>1483</v>
+      </c>
     </row>
     <row r="181" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
@@ -9351,7 +9465,9 @@
       <c r="G181" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="H181" s="14"/>
+      <c r="H181" s="14" t="s">
+        <v>1484</v>
+      </c>
     </row>
     <row r="182" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
@@ -9375,7 +9491,9 @@
       <c r="G182" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="H182" s="13"/>
+      <c r="H182" s="13" t="s">
+        <v>1485</v>
+      </c>
     </row>
     <row r="183" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
@@ -9399,7 +9517,9 @@
       <c r="G183" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="H183" s="14"/>
+      <c r="H183" s="14" t="s">
+        <v>1486</v>
+      </c>
     </row>
     <row r="184" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">

--- a/all.xlsx
+++ b/all.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4232" uniqueCount="1487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4239" uniqueCount="1493">
   <si>
     <t>Data Types</t>
   </si>
@@ -4578,6 +4578,27 @@
   </si>
   <si>
     <t>https://archive.ics.uci.edu/ml/machine-learning-databases/acute/diagnosis.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/url/url_svmlight.tar.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://archive.ics.uci.edu/ml/machine-learning-databases/wine-quality/winequality-white.csv
+https://archive.ics.uci.edu/ml/machine-learning-databases/wine-quality/winequality-red.csv</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/p53/p53_new_2012.zip
+https://archive.ics.uci.edu/ml/machine-learning-databases/p53/p53_old_2012.zip</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/parkinsons/telemonitoring/parkinsons_updrs.data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/opinion/OpinosisDataset1.0.zip</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/00192/BreastTissue.xls</t>
   </si>
 </sst>
 </file>
@@ -5069,8 +5090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A190" sqref="A190"/>
+    <sheetView tabSelected="1" topLeftCell="D186" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H190" sqref="H190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9521,7 +9542,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>453</v>
       </c>
@@ -9543,7 +9564,9 @@
       <c r="G184" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="H184" s="13"/>
+      <c r="H184" s="13" t="s">
+        <v>1488</v>
+      </c>
     </row>
     <row r="185" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
@@ -9567,7 +9590,9 @@
       <c r="G185" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="H185" s="14"/>
+      <c r="H185" s="14" t="s">
+        <v>1487</v>
+      </c>
     </row>
     <row r="186" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
@@ -9591,7 +9616,9 @@
       <c r="G186" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="H186" s="13"/>
+      <c r="H186" s="13" t="s">
+        <v>1489</v>
+      </c>
     </row>
     <row r="187" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
@@ -9615,7 +9642,9 @@
       <c r="G187" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="H187" s="14"/>
+      <c r="H187" s="14" t="s">
+        <v>1490</v>
+      </c>
     </row>
     <row r="188" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
@@ -9637,7 +9666,9 @@
       <c r="G188" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="H188" s="13"/>
+      <c r="H188" s="13" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="189" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
@@ -9655,7 +9686,9 @@
       <c r="G189" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="H189" s="14"/>
+      <c r="H189" s="14" t="s">
+        <v>1491</v>
+      </c>
     </row>
     <row r="190" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
@@ -9679,7 +9712,9 @@
       <c r="G190" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="H190" s="13"/>
+      <c r="H190" s="13" t="s">
+        <v>1492</v>
+      </c>
     </row>
     <row r="191" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">

--- a/all.xlsx
+++ b/all.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4239" uniqueCount="1493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4248" uniqueCount="1502">
   <si>
     <t>Data Types</t>
   </si>
@@ -4599,6 +4599,34 @@
   </si>
   <si>
     <t>https://archive.ics.uci.edu/ml/machine-learning-databases/00192/BreastTissue.xls</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/00193/CTG.xls</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/00194/AllData.zip</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/00195/Test_Arabic_Digit.txt
+https://archive.ics.uci.edu/ml/machine-learning-databases/00195/Train_Arabic_Digit.txt</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/00196/ConfLongDemo_JSI.txt</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/00197/AU.zip</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/00198/Faults.NNA</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/00199/MiniBooNE_PID.txt</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/00203/YearPredictionMSD.txt.zip</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/00204/PEMS-SF.zip</t>
   </si>
 </sst>
 </file>
@@ -5090,8 +5118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D186" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H190" sqref="H190"/>
+    <sheetView tabSelected="1" topLeftCell="A195" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9738,7 +9766,9 @@
       <c r="G191" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="H191" s="14"/>
+      <c r="H191" s="14" t="s">
+        <v>1493</v>
+      </c>
     </row>
     <row r="192" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
@@ -9762,7 +9792,9 @@
       <c r="G192" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="H192" s="13"/>
+      <c r="H192" s="13" t="s">
+        <v>1494</v>
+      </c>
     </row>
     <row r="193" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
@@ -9786,7 +9818,9 @@
       <c r="G193" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="H193" s="14"/>
+      <c r="H193" s="14" t="s">
+        <v>1495</v>
+      </c>
     </row>
     <row r="194" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
@@ -9810,7 +9844,9 @@
       <c r="G194" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="H194" s="13"/>
+      <c r="H194" s="13" t="s">
+        <v>1496</v>
+      </c>
     </row>
     <row r="195" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
@@ -9830,7 +9866,9 @@
       <c r="G195" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="H195" s="14"/>
+      <c r="H195" s="14" t="s">
+        <v>1497</v>
+      </c>
     </row>
     <row r="196" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
@@ -9854,7 +9892,9 @@
       <c r="G196" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="H196" s="13"/>
+      <c r="H196" s="13" t="s">
+        <v>1498</v>
+      </c>
     </row>
     <row r="197" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
@@ -9878,7 +9918,9 @@
       <c r="G197" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="H197" s="14"/>
+      <c r="H197" s="14" t="s">
+        <v>1499</v>
+      </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
@@ -9902,7 +9944,9 @@
       <c r="G198" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="H198" s="13"/>
+      <c r="H198" s="13" t="s">
+        <v>1500</v>
+      </c>
     </row>
     <row r="199" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
@@ -9926,7 +9970,9 @@
       <c r="G199" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="H199" s="14"/>
+      <c r="H199" s="14" t="s">
+        <v>1501</v>
+      </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">

--- a/all.xlsx
+++ b/all.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4248" uniqueCount="1502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4265" uniqueCount="1518">
   <si>
     <t>Data Types</t>
   </si>
@@ -4627,6 +4627,54 @@
   </si>
   <si>
     <t>https://archive.ics.uci.edu/ml/machine-learning-databases/00204/PEMS-SF.zip</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/00205/OpinRankDataset.zip</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/00206/slice_localization_data.zip</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/00208/Online%20Handwritten%20Assamese%20Characters%20Dataset.rar</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/00209/Schierz_Bioassay.zip</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/00210/donation.zip</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/00211/CommViolPredUnnormalizedData.txt</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/00212/vertebral_column_data.zip</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/00213/EMG%20Physical%20Action%20Data%20Set.rar</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/00214/Vicon%20Physical%20Action%20Data%20Set.rar</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/00215/Amazon_initial_50_30_10000.rar</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/00216/amzn-anon-access-samples.tgz</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/00217/C50.zip</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/00218/farm-data.zip</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/00219/dbworld.zip</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/00220/Relation%20Network%20(Directed).data</t>
+  </si>
+  <si>
+    <t>https://archive.ics.uci.edu/ml/machine-learning-databases/00221/Reaction%20Network%20(Undirected).data</t>
   </si>
 </sst>
 </file>
@@ -5118,8 +5166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A200" sqref="A200"/>
+    <sheetView tabSelected="1" topLeftCell="A211" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E213" sqref="E213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5131,7 +5179,7 @@
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="128.5703125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="82.5703125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -9988,7 +10036,9 @@
       <c r="G200" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="H200" s="13"/>
+      <c r="H200" s="13" t="s">
+        <v>1502</v>
+      </c>
     </row>
     <row r="201" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
@@ -10012,7 +10062,9 @@
       <c r="G201" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="H201" s="14"/>
+      <c r="H201" s="14" t="s">
+        <v>1503</v>
+      </c>
     </row>
     <row r="202" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
@@ -10034,7 +10086,9 @@
       <c r="G202" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="H202" s="13"/>
+      <c r="H202" s="13" t="s">
+        <v>1504</v>
+      </c>
     </row>
     <row r="203" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
@@ -10054,7 +10108,9 @@
       <c r="G203" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="H203" s="14"/>
+      <c r="H203" s="14" t="s">
+        <v>1505</v>
+      </c>
     </row>
     <row r="204" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
@@ -10078,7 +10134,9 @@
       <c r="G204" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="H204" s="13"/>
+      <c r="H204" s="13" t="s">
+        <v>1506</v>
+      </c>
     </row>
     <row r="205" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
@@ -10102,7 +10160,9 @@
       <c r="G205" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="H205" s="14"/>
+      <c r="H205" s="14" t="s">
+        <v>1507</v>
+      </c>
     </row>
     <row r="206" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
@@ -10126,7 +10186,9 @@
       <c r="G206" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="H206" s="13"/>
+      <c r="H206" s="13" t="s">
+        <v>1508</v>
+      </c>
     </row>
     <row r="207" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
@@ -10150,7 +10212,9 @@
       <c r="G207" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="H207" s="14"/>
+      <c r="H207" s="14" t="s">
+        <v>1509</v>
+      </c>
     </row>
     <row r="208" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
@@ -10174,7 +10238,9 @@
       <c r="G208" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="H208" s="13"/>
+      <c r="H208" s="13" t="s">
+        <v>1510</v>
+      </c>
     </row>
     <row r="209" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
@@ -10198,7 +10264,9 @@
       <c r="G209" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="H209" s="14"/>
+      <c r="H209" s="14" t="s">
+        <v>1511</v>
+      </c>
     </row>
     <row r="210" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
@@ -10220,7 +10288,9 @@
       <c r="G210" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="H210" s="13"/>
+      <c r="H210" s="13" t="s">
+        <v>1512</v>
+      </c>
     </row>
     <row r="211" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
@@ -10244,7 +10314,9 @@
       <c r="G211" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="H211" s="14"/>
+      <c r="H211" s="14" t="s">
+        <v>1513</v>
+      </c>
     </row>
     <row r="212" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
@@ -10266,7 +10338,9 @@
       <c r="G212" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="H212" s="13"/>
+      <c r="H212" s="13" t="s">
+        <v>1514</v>
+      </c>
     </row>
     <row r="213" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
@@ -10288,7 +10362,9 @@
       <c r="G213" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="H213" s="14"/>
+      <c r="H213" s="14" t="s">
+        <v>1515</v>
+      </c>
     </row>
     <row r="214" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
@@ -10312,7 +10388,9 @@
       <c r="G214" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="H214" s="13"/>
+      <c r="H214" s="13" t="s">
+        <v>1516</v>
+      </c>
     </row>
     <row r="215" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
@@ -10336,7 +10414,9 @@
       <c r="G215" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="H215" s="14"/>
+      <c r="H215" s="14" t="s">
+        <v>1517</v>
+      </c>
     </row>
     <row r="216" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
@@ -10360,7 +10440,9 @@
       <c r="G216" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="H216" s="13"/>
+      <c r="H216" s="13" t="s">
+        <v>1517</v>
+      </c>
     </row>
     <row r="217" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
